--- a/5_taxonomy/COI_barcodes_only_taxonomies_20180410.xlsx
+++ b/5_taxonomy/COI_barcodes_only_taxonomies_20180410.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Roslin_Greenland/2017/bulk_samples/mapping_git/5_taxonomy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09C7B6-4455-934A-872F-387456E83844}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="29360" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COI_Barcodes" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COI_Barcodes!$A$1:$F$397</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2775,12 +2786,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2803,7 +2814,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2845,8 +2856,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3150,33 +3161,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247:XFD247"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2"/>
-    <col min="6" max="6" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2"/>
+    <col min="6" max="6" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3211,12 +3222,12 @@
         <f>IFERROR(RIGHT(D2, LEN(D2)-IFERROR(FIND(" ", D2),"")), "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F2" s="2" t="e">
-        <f ca="1">_1__xlfn.TEXTJOIN("_", TRUE, B2, C2, E2)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14">
+      <c r="F2" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_", TRUE, B2, C2, E2)</f>
+        <v>Chironomidae_Limnophyes_NA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3233,12 +3244,12 @@
         <f t="shared" ref="E3:E59" si="0">IFERROR(RIGHT(D3, LEN(D3)-IFERROR(FIND(" ", D3),"")), "NA")</f>
         <v>oxoniana</v>
       </c>
-      <c r="F3" s="2" t="e">
-        <f t="shared" ref="F3:F59" ca="1" si="1">_1__xlfn.TEXTJOIN("_", TRUE, B3, C3, E3)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14">
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F66" si="1">_xlfn.TEXTJOIN("_", TRUE, B3, C3, E3)</f>
+        <v>Chironomidae_Hydrosmittia_oxoniana</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3251,12 +3262,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14">
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3273,12 +3284,12 @@
         <f t="shared" si="0"/>
         <v>micans</v>
       </c>
-      <c r="F5" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14">
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mycetophilidae_Exechia_micans</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3293,12 +3304,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F6" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14">
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Braconidae_Praon_NA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3313,12 +3324,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F7" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14">
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mycetophilidae_Phronia_NA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3335,12 +3346,12 @@
         <f t="shared" si="0"/>
         <v>tundrae</v>
       </c>
-      <c r="F8" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14">
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Muscidae_Spilogona_tundrae</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3355,12 +3366,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F9" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14">
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Metriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3373,12 +3384,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F10" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14">
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3395,12 +3406,12 @@
         <f t="shared" si="0"/>
         <v>sp_8ES</v>
       </c>
-      <c r="F11" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14">
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Corynoneura_sp_8ES</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3415,12 +3426,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F12" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14">
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Plutellidae_Plutella_NA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3435,12 +3446,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F13" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14">
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sciaridae_Lycoriella_NA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3455,12 +3466,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F14" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14">
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Neurateles_NA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3473,12 +3484,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F15" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14">
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3495,12 +3506,12 @@
         <f t="shared" si="0"/>
         <v>edwardsi</v>
       </c>
-      <c r="F16" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14">
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_edwardsi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3517,12 +3528,12 @@
         <f t="shared" si="0"/>
         <v>dryadis</v>
       </c>
-      <c r="F17" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14">
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Douglasiidae_Tinagma_dryadis</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3535,12 +3546,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F18" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14">
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3555,12 +3566,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F19" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14">
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Stenomacrus_NA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -3573,12 +3584,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F20" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14">
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Trichoceridae_NA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -3593,12 +3604,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F21" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14">
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sciaridae_Camptochaeta_NA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -3615,12 +3626,12 @@
         <f t="shared" si="0"/>
         <v>sp_4ES</v>
       </c>
-      <c r="F22" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14">
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ceratopogonidae_Forcipomyia_sp_4ES</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -3635,12 +3646,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F23" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14">
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mycetophilidae_Phronia_NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3655,12 +3666,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F24" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14">
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Mesochorus_NA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3675,12 +3686,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F25" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14">
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Stenomacrus_NA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -3697,12 +3708,12 @@
         <f t="shared" si="0"/>
         <v>tenebrosus</v>
       </c>
-      <c r="F26" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14">
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Cremastus_tenebrosus</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -3717,12 +3728,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F27" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14">
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -3737,12 +3748,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F28" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14">
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -3757,12 +3768,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F29" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14">
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Metriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -3779,12 +3790,12 @@
         <f t="shared" si="0"/>
         <v>logani</v>
       </c>
-      <c r="F30" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14">
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Micropsectra_logani</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -3797,12 +3808,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F31" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14">
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3817,12 +3828,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F32" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14">
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3837,12 +3848,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F33" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14">
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Limnophyes_NA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -3857,12 +3868,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F34" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14">
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,12 +3890,12 @@
         <f t="shared" si="0"/>
         <v>micans</v>
       </c>
-      <c r="F35" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14">
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Muscidae_Spilogona_micans</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
@@ -3899,12 +3910,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14">
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ceratopogonidae_Brachypogon_NA</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -3919,12 +3930,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F37" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14">
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Orthocentrus_NA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
@@ -3939,12 +3950,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F38" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14">
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Atractodes_NA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -3961,12 +3972,12 @@
         <f t="shared" si="0"/>
         <v>transversoguttata</v>
       </c>
-      <c r="F39" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14">
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Coccinellidae_Coccinella_transversoguttata</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -3983,12 +3994,12 @@
         <f t="shared" si="0"/>
         <v>consimilis</v>
       </c>
-      <c r="F40" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14">
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sciaridae_Camptochaeta_consimilis</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -4005,12 +4016,12 @@
         <f t="shared" si="0"/>
         <v>cf_extrema</v>
       </c>
-      <c r="F41" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14">
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_cf_extrema</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -4027,12 +4038,12 @@
         <f t="shared" si="0"/>
         <v>hirta</v>
       </c>
-      <c r="F42" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14">
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mycetophilidae_Sciophila_hirta</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -4049,12 +4060,12 @@
         <f t="shared" si="0"/>
         <v>coracina</v>
       </c>
-      <c r="F43" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14">
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Sergentia_coracina</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -4071,12 +4082,12 @@
         <f t="shared" si="0"/>
         <v>crassinervis</v>
       </c>
-      <c r="F44" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14">
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Procladius_crassinervis</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -4091,12 +4102,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F45" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14">
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -4113,12 +4124,12 @@
         <f t="shared" si="0"/>
         <v>pumilio</v>
       </c>
-      <c r="F46" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14">
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Limnophyes_pumilio</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -4133,12 +4144,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F47" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14">
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Braconidae_Cotesia_NA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -4153,12 +4164,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F48" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14">
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Figitidae_Alloxysta_NA</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -4175,12 +4186,12 @@
         <f t="shared" si="0"/>
         <v>rectangularis</v>
       </c>
-      <c r="F49" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14">
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Tokunagaia_rectangularis</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -4193,12 +4204,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F50" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14">
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Penthaleidae_NA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -4215,12 +4226,12 @@
         <f t="shared" si="0"/>
         <v>obscura</v>
       </c>
-      <c r="F51" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14">
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Thienemanniella_obscura</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -4237,12 +4248,12 @@
         <f t="shared" si="0"/>
         <v>exigua</v>
       </c>
-      <c r="F52" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14">
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Mycetophilidae_Phronia_exigua</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -4259,12 +4270,12 @@
         <f t="shared" si="0"/>
         <v>tibialis</v>
       </c>
-      <c r="F53" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14">
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Cricotopus_tibialis</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -4279,12 +4290,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F54" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14">
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -4301,12 +4312,12 @@
         <f t="shared" si="0"/>
         <v>niger</v>
       </c>
-      <c r="F55" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14">
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Tanytarsus_niger</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -4321,12 +4332,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F56" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14">
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ichneumonidae_Stenomacrus_NA</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -4341,12 +4352,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F57" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14">
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Paratanytarsus_NA</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="1" t="s">
         <v>139</v>
       </c>
@@ -4361,12 +4372,12 @@
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="F58" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14">
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ceratopogonidae_Forcipomyia_NA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -4383,12 +4394,12 @@
         <f t="shared" si="0"/>
         <v>arctica</v>
       </c>
-      <c r="F59" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14">
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Corynoneura_arctica</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="1" t="s">
         <v>142</v>
       </c>
@@ -4405,12 +4416,12 @@
         <f t="shared" ref="E60:E122" si="2">IFERROR(RIGHT(D60, LEN(D60)-IFERROR(FIND(" ", D60),"")), "NA")</f>
         <v>scutellata</v>
       </c>
-      <c r="F60" s="2" t="e">
-        <f t="shared" ref="F60:F122" ca="1" si="3">_1__xlfn.TEXTJOIN("_", TRUE, B60, C60, E60)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14">
+      <c r="F60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Corynoneura_scutellata</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
@@ -4425,12 +4436,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F61" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14">
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
@@ -4445,12 +4456,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F62" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14">
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Metriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15">
       <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
@@ -4467,12 +4478,12 @@
         <f t="shared" si="2"/>
         <v>anderseni</v>
       </c>
-      <c r="F63" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14">
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Tanytarsus_anderseni</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -4487,12 +4498,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F64" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14">
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lebertiidae_Lebertia_NA</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="1" t="s">
         <v>151</v>
       </c>
@@ -4509,12 +4520,12 @@
         <f t="shared" si="2"/>
         <v>arctica</v>
       </c>
-      <c r="F65" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14">
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Chironomidae_Diamesa_arctica</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
@@ -4529,12 +4540,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F66" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14">
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Limoniidae_Ormosia_NA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="1" t="s">
         <v>157</v>
       </c>
@@ -4551,12 +4562,12 @@
         <f t="shared" si="2"/>
         <v>modesta</v>
       </c>
-      <c r="F67" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14">
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F130" si="3">_xlfn.TEXTJOIN("_", TRUE, B67, C67, E67)</f>
+        <v>Sciaridae_Lycoriella_modesta</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
@@ -4569,12 +4580,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F68" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14">
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
@@ -4589,12 +4600,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F69" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14">
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Trichoceridae_Trichocera_NA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
@@ -4611,12 +4622,12 @@
         <f t="shared" si="2"/>
         <v>attenuatus</v>
       </c>
-      <c r="F70" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14">
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Syrphidae_Syrphus_attenuatus</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="1" t="s">
         <v>166</v>
       </c>
@@ -4631,12 +4642,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F71" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14">
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Muscidae_Spilogona_NA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="1" t="s">
         <v>167</v>
       </c>
@@ -4653,12 +4664,12 @@
         <f t="shared" si="2"/>
         <v>abbrevinervis</v>
       </c>
-      <c r="F72" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14">
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Lycoriella_abbrevinervis</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="1" t="s">
         <v>169</v>
       </c>
@@ -4675,12 +4686,12 @@
         <f t="shared" si="2"/>
         <v>eltoni</v>
       </c>
-      <c r="F73" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14">
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Limnophyes_eltoni</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="1" t="s">
         <v>171</v>
       </c>
@@ -4693,12 +4704,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F74" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14">
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Canacidae_NA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
@@ -4715,12 +4726,12 @@
         <f t="shared" si="2"/>
         <v>megastoma</v>
       </c>
-      <c r="F75" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14">
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Muscidae_Spilogona_megastoma</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="1" t="s">
         <v>175</v>
       </c>
@@ -4737,12 +4748,12 @@
         <f t="shared" si="2"/>
         <v>longiceps</v>
       </c>
-      <c r="F76" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14">
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Bathythrix_longiceps</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="1" t="s">
         <v>178</v>
       </c>
@@ -4759,12 +4770,12 @@
         <f t="shared" si="2"/>
         <v>nigritarsus</v>
       </c>
-      <c r="F77" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="14">
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Syrphoctonus_nigritarsus</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="1" t="s">
         <v>181</v>
       </c>
@@ -4779,12 +4790,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F78" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="14">
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Atractodes_NA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="1" t="s">
         <v>182</v>
       </c>
@@ -4801,12 +4812,12 @@
         <f t="shared" si="2"/>
         <v>groenlandicum</v>
       </c>
-      <c r="F79" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14">
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Pteromalidae_Pachyneuron_groenlandicum</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="1" t="s">
         <v>186</v>
       </c>
@@ -4819,12 +4830,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F80" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14">
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_NA</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15">
       <c r="A81" s="1" t="s">
         <v>187</v>
       </c>
@@ -4839,12 +4850,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F81" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14">
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Heleomyzidae_Oecothea_NA</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15">
       <c r="A82" s="1" t="s">
         <v>190</v>
       </c>
@@ -4861,12 +4872,12 @@
         <f t="shared" si="2"/>
         <v>roussellae</v>
       </c>
-      <c r="F82" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14">
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Orthocladius_roussellae</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15">
       <c r="A83" s="1" t="s">
         <v>192</v>
       </c>
@@ -4883,12 +4894,12 @@
         <f t="shared" si="2"/>
         <v>platura</v>
       </c>
-      <c r="F83" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14">
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Anthomyiidae_Delia_platura</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15">
       <c r="A84" s="1" t="s">
         <v>195</v>
       </c>
@@ -4905,12 +4916,12 @@
         <f t="shared" si="2"/>
         <v>zeta</v>
       </c>
-      <c r="F84" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="14">
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Noctuidae_Apamea_zeta</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15">
       <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
@@ -4925,12 +4936,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F85" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="14">
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -4945,12 +4956,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F86" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="14">
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceratopogonidae_Brachypogon_NA</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15">
       <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
@@ -4965,12 +4976,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F87" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="14">
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Picrostigeus_NA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="1" t="s">
         <v>203</v>
       </c>
@@ -4985,12 +4996,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F88" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="14">
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceratopogonidae_Brachypogon_NA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15">
       <c r="A89" s="1" t="s">
         <v>204</v>
       </c>
@@ -5007,12 +5018,12 @@
         <f t="shared" si="2"/>
         <v>posticalis</v>
       </c>
-      <c r="F89" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="14">
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Trichotanypus_posticalis</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15">
       <c r="A90" s="1" t="s">
         <v>207</v>
       </c>
@@ -5027,12 +5038,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F90" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="14">
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Atractodes_NA</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15">
       <c r="A91" s="1" t="s">
         <v>208</v>
       </c>
@@ -5047,12 +5058,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F91" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="14">
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Campoletis_NA</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="1" t="s">
         <v>210</v>
       </c>
@@ -5067,12 +5078,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F92" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="14">
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Braconidae_Cotesia_NA</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15">
       <c r="A93" s="1" t="s">
         <v>211</v>
       </c>
@@ -5089,12 +5100,12 @@
         <f t="shared" si="2"/>
         <v>quadrangula</v>
       </c>
-      <c r="F93" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14">
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Noctuidae_Rhyacia_quadrangula</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="1" t="s">
         <v>214</v>
       </c>
@@ -5111,12 +5122,12 @@
         <f t="shared" si="2"/>
         <v>adumbrata</v>
       </c>
-      <c r="F94" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="14">
+      <c r="F94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Noctuidae_Euxoa_adumbrata</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="1" t="s">
         <v>217</v>
       </c>
@@ -5131,12 +5142,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F95" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="14">
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Syrphidae_Eupeodes_NA</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="1" t="s">
         <v>219</v>
       </c>
@@ -5153,12 +5164,12 @@
         <f t="shared" si="2"/>
         <v>divisa</v>
       </c>
-      <c r="F96" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="14">
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Anthomyiidae_Zaphne_divisa</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
@@ -5175,12 +5186,12 @@
         <f t="shared" si="2"/>
         <v>decoratus</v>
       </c>
-      <c r="F97" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="14">
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Orthocladius_decoratus</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="1" t="s">
         <v>223</v>
       </c>
@@ -5197,12 +5208,12 @@
         <f t="shared" si="2"/>
         <v>furcata</v>
       </c>
-      <c r="F98" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="14">
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Scathophagidae_Scathophaga_furcata</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15">
       <c r="A99" s="1" t="s">
         <v>227</v>
       </c>
@@ -5219,12 +5230,12 @@
         <f t="shared" si="2"/>
         <v>fulvipes</v>
       </c>
-      <c r="F99" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="14">
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Braconidae_Glyptapanteles_fulvipes</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="1" t="s">
         <v>230</v>
       </c>
@@ -5241,12 +5252,12 @@
         <f t="shared" si="2"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F100" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="14">
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Lygaeidae_Nysius_groenlandicus</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="1" t="s">
         <v>234</v>
       </c>
@@ -5263,12 +5274,12 @@
         <f t="shared" si="2"/>
         <v>vitticollis</v>
       </c>
-      <c r="F101" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="14">
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Lycoriella_vitticollis</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="1" t="s">
         <v>236</v>
       </c>
@@ -5285,12 +5296,12 @@
         <f t="shared" si="2"/>
         <v>tridentata</v>
       </c>
-      <c r="F102" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="14">
+      <c r="F102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Schwenckfeldina_tridentata</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="1" t="s">
         <v>239</v>
       </c>
@@ -5305,12 +5316,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F103" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="14">
+      <c r="F103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Lycoriella_NA</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="1" t="s">
         <v>240</v>
       </c>
@@ -5327,12 +5338,12 @@
         <f t="shared" si="2"/>
         <v>glacialis</v>
       </c>
-      <c r="F104" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="14">
+      <c r="F104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Acrolyta_glacialis</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15">
       <c r="A105" s="1" t="s">
         <v>243</v>
       </c>
@@ -5349,12 +5360,12 @@
         <f t="shared" si="2"/>
         <v>vulgatissimus</v>
       </c>
-      <c r="F105" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="14">
+      <c r="F105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Thripidae_Thrips_vulgatissimus</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="1" t="s">
         <v>247</v>
       </c>
@@ -5371,12 +5382,12 @@
         <f t="shared" si="2"/>
         <v>senilella</v>
       </c>
-      <c r="F106" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="14">
+      <c r="F106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Plutellidae_Rhigognostis_senilella</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15">
       <c r="A107" s="1" t="s">
         <v>250</v>
       </c>
@@ -5389,12 +5400,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F107" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="14">
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Mycetophilidae_NA</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="1" t="s">
         <v>251</v>
       </c>
@@ -5411,12 +5422,12 @@
         <f t="shared" si="2"/>
         <v>nr_ariciiformis</v>
       </c>
-      <c r="F108" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="14">
+      <c r="F108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Anthomyiidae_Fucellia_nr_ariciiformis</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
@@ -5431,12 +5442,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F109" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="14">
+      <c r="F109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Cecidomyiidae_Dasineura_NA</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="1" t="s">
         <v>255</v>
       </c>
@@ -5451,12 +5462,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F110" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="14">
+      <c r="F110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ichneumonidae_Plectiscidea_NA</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="1" t="s">
         <v>257</v>
       </c>
@@ -5473,12 +5484,12 @@
         <f t="shared" si="2"/>
         <v>stylata</v>
       </c>
-      <c r="F111" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="14">
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Tachinidae_Periscepsia_stylata</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="1" t="s">
         <v>261</v>
       </c>
@@ -5495,12 +5506,12 @@
         <f t="shared" si="2"/>
         <v>monacantha</v>
       </c>
-      <c r="F112" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="14">
+      <c r="F112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Muscidae_Spilogona_monacantha</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="1" t="s">
         <v>263</v>
       </c>
@@ -5515,12 +5526,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F113" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="14">
+      <c r="F113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceratopogonidae_Brachypogon_NA</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15">
       <c r="A114" s="1" t="s">
         <v>264</v>
       </c>
@@ -5537,12 +5548,12 @@
         <f t="shared" si="2"/>
         <v>arcticum</v>
       </c>
-      <c r="F114" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="14">
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Mycetophilidae_Brevicornu_arcticum</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15">
       <c r="A115" s="1" t="s">
         <v>267</v>
       </c>
@@ -5559,12 +5570,12 @@
         <f t="shared" si="2"/>
         <v>modesta</v>
       </c>
-      <c r="F115" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="14">
+      <c r="F115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Lycoriella_modesta</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="1" t="s">
         <v>268</v>
       </c>
@@ -5579,12 +5590,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F116" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="14">
+      <c r="F116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15">
       <c r="A117" s="1" t="s">
         <v>269</v>
       </c>
@@ -5601,12 +5612,12 @@
         <f t="shared" si="2"/>
         <v>egregia</v>
       </c>
-      <c r="F117" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="14">
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Mycetophilidae_Phronia_egregia</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="1" t="s">
         <v>271</v>
       </c>
@@ -5619,12 +5630,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F118" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="14">
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_NA</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15">
       <c r="A119" s="1" t="s">
         <v>272</v>
       </c>
@@ -5637,12 +5648,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="F119" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="14">
+      <c r="F119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="1" t="s">
         <v>273</v>
       </c>
@@ -5659,12 +5670,12 @@
         <f t="shared" si="2"/>
         <v>scotica</v>
       </c>
-      <c r="F120" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="14">
+      <c r="F120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Limoniidae_Symplecta_scotica</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15">
       <c r="A121" s="1" t="s">
         <v>276</v>
       </c>
@@ -5681,12 +5692,12 @@
         <f t="shared" si="2"/>
         <v>echinata</v>
       </c>
-      <c r="F121" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="14">
+      <c r="F121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Anthomyiidae_Delia_echinata</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15">
       <c r="A122" s="1" t="s">
         <v>278</v>
       </c>
@@ -5703,12 +5714,12 @@
         <f t="shared" si="2"/>
         <v>obnixus</v>
       </c>
-      <c r="F122" s="2" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="14">
+      <c r="F122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Cricotopus_obnixus</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="1" t="s">
         <v>280</v>
       </c>
@@ -5721,12 +5732,12 @@
         <f t="shared" ref="E123:E184" si="4">IFERROR(RIGHT(D123, LEN(D123)-IFERROR(FIND(" ", D123),"")), "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F123" s="2" t="e">
-        <f t="shared" ref="F123:F184" ca="1" si="5">_1__xlfn.TEXTJOIN("_", TRUE, B123, C123, E123)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="14">
+      <c r="F123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15">
       <c r="A124" s="1" t="s">
         <v>281</v>
       </c>
@@ -5739,12 +5750,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F124" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="14">
+      <c r="F124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Agromyzidae_NA</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="1" t="s">
         <v>283</v>
       </c>
@@ -5759,12 +5770,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F125" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="14">
+      <c r="F125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Gymnometriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15">
       <c r="A126" s="1" t="s">
         <v>285</v>
       </c>
@@ -5781,12 +5792,12 @@
         <f t="shared" si="4"/>
         <v>insignilobus</v>
       </c>
-      <c r="F126" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="14">
+      <c r="F126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Micropsectra_insignilobus</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15">
       <c r="A127" s="1" t="s">
         <v>287</v>
       </c>
@@ -5803,12 +5814,12 @@
         <f t="shared" si="4"/>
         <v>barbimanus</v>
       </c>
-      <c r="F127" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="14">
+      <c r="F127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Psectrocladius_barbimanus</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15">
       <c r="A128" s="1" t="s">
         <v>290</v>
       </c>
@@ -5825,12 +5836,12 @@
         <f t="shared" si="4"/>
         <v>saxosus</v>
       </c>
-      <c r="F128" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="14">
+      <c r="F128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chironomidae_Orthocladius_saxosus</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15">
       <c r="A129" s="1" t="s">
         <v>292</v>
       </c>
@@ -5847,12 +5858,12 @@
         <f t="shared" si="4"/>
         <v>prominens</v>
       </c>
-      <c r="F129" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="14">
+      <c r="F129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Heleomyzidae_Neoleria_prominens</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15">
       <c r="A130" s="1" t="s">
         <v>295</v>
       </c>
@@ -5867,12 +5878,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F130" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="14">
+      <c r="F130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sciaridae_Camptochaeta_NA</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="1" t="s">
         <v>296</v>
       </c>
@@ -5889,12 +5900,12 @@
         <f t="shared" si="4"/>
         <v>arcticus</v>
       </c>
-      <c r="F131" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="14">
+      <c r="F131" s="2" t="str">
+        <f t="shared" ref="F131:F194" si="5">_xlfn.TEXTJOIN("_", TRUE, B131, C131, E131)</f>
+        <v>Scathophagidae_Gonarcticus_arcticus</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15">
       <c r="A132" s="1" t="s">
         <v>299</v>
       </c>
@@ -5911,12 +5922,12 @@
         <f t="shared" si="4"/>
         <v>zetterstedtii</v>
       </c>
-      <c r="F132" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="14">
+      <c r="F132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Noctuidae_Sympistis_zetterstedtii</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15">
       <c r="A133" s="1" t="s">
         <v>302</v>
       </c>
@@ -5931,12 +5942,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F133" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="14">
+      <c r="F133" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ichneumonidae_Plectiscidea_NA</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="1" t="s">
         <v>303</v>
       </c>
@@ -5951,12 +5962,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F134" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="14">
+      <c r="F134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Tetranychidae_Bryobia_NA</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="1" t="s">
         <v>306</v>
       </c>
@@ -5973,12 +5984,12 @@
         <f t="shared" si="4"/>
         <v>arcticae</v>
       </c>
-      <c r="F135" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="14">
+      <c r="F135" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Phoridae_Megaselia_arcticae</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="1" t="s">
         <v>310</v>
       </c>
@@ -5995,12 +6006,12 @@
         <f t="shared" si="4"/>
         <v>cladiator</v>
       </c>
-      <c r="F136" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="14">
+      <c r="F136" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Camptochaeta_cladiator</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="1" t="s">
         <v>312</v>
       </c>
@@ -6015,12 +6026,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F137" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="14">
+      <c r="F137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="1" t="s">
         <v>313</v>
       </c>
@@ -6035,12 +6046,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F138" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="14">
+      <c r="F138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Corynoneura_NA</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="1" t="s">
         <v>314</v>
       </c>
@@ -6055,12 +6066,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F139" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="14">
+      <c r="F139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15">
       <c r="A140" s="1" t="s">
         <v>315</v>
       </c>
@@ -6075,12 +6086,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F140" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="14">
+      <c r="F140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Lycoriella_NA</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="1" t="s">
         <v>316</v>
       </c>
@@ -6097,12 +6108,12 @@
         <f t="shared" si="4"/>
         <v>arcticus</v>
       </c>
-      <c r="F141" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="14">
+      <c r="F141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ichneumonidae_Cryptus_arcticus</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="1" t="s">
         <v>319</v>
       </c>
@@ -6119,12 +6130,12 @@
         <f t="shared" si="4"/>
         <v>moriens</v>
       </c>
-      <c r="F142" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="14">
+      <c r="F142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Anthomyiidae_Botanophila_moriens</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="1" t="s">
         <v>322</v>
       </c>
@@ -6141,12 +6152,12 @@
         <f t="shared" si="4"/>
         <v>icterica</v>
       </c>
-      <c r="F143" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="14">
+      <c r="F143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Anthomyiidae_Pegomya_icterica</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="1" t="s">
         <v>325</v>
       </c>
@@ -6163,12 +6174,12 @@
         <f t="shared" si="4"/>
         <v>sp_1TE</v>
       </c>
-      <c r="F144" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="14">
+      <c r="F144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Chironomus_sp_1TE</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15">
       <c r="A145" s="1" t="s">
         <v>328</v>
       </c>
@@ -6185,12 +6196,12 @@
         <f t="shared" si="4"/>
         <v>fusistylus</v>
       </c>
-      <c r="F145" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="14">
+      <c r="F145" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Hydrobaenus_fusistylus</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="1" t="s">
         <v>331</v>
       </c>
@@ -6207,12 +6218,12 @@
         <f t="shared" si="4"/>
         <v>jemtlandica</v>
       </c>
-      <c r="F146" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="14">
+      <c r="F146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Prosmittia_jemtlandica</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15">
       <c r="A147" s="1" t="s">
         <v>334</v>
       </c>
@@ -6229,12 +6240,12 @@
         <f t="shared" si="4"/>
         <v>ovata</v>
       </c>
-      <c r="F147" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="14">
+      <c r="F147" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Cecidomyiidae_Neurolyga_ovata</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15">
       <c r="A148" s="1" t="s">
         <v>337</v>
       </c>
@@ -6249,12 +6260,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F148" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="14">
+      <c r="F148" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ceratopogonidae_Forcipomyia_NA</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15">
       <c r="A149" s="1" t="s">
         <v>338</v>
       </c>
@@ -6271,12 +6282,12 @@
         <f t="shared" si="4"/>
         <v>impensus</v>
       </c>
-      <c r="F149" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="14">
+      <c r="F149" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Paraphaenocladius_impensus</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15">
       <c r="A150" s="1" t="s">
         <v>341</v>
       </c>
@@ -6293,12 +6304,12 @@
         <f t="shared" si="4"/>
         <v>cf_tibialis</v>
       </c>
-      <c r="F150" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="14">
+      <c r="F150" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Cricotopus_cf_tibialis</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15">
       <c r="A151" s="1" t="s">
         <v>343</v>
       </c>
@@ -6313,12 +6324,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F151" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="14">
+      <c r="F151" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15">
       <c r="A152" s="1" t="s">
         <v>344</v>
       </c>
@@ -6331,12 +6342,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F152" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="14">
+      <c r="F152" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15">
       <c r="A153" s="1" t="s">
         <v>345</v>
       </c>
@@ -6353,12 +6364,12 @@
         <f t="shared" si="4"/>
         <v>fuscipenne</v>
       </c>
-      <c r="F153" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="14">
+      <c r="F153" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Mycetophilidae_Brevicornu_fuscipenne</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15">
       <c r="A154" s="1" t="s">
         <v>347</v>
       </c>
@@ -6375,12 +6386,12 @@
         <f t="shared" si="4"/>
         <v>brusti</v>
       </c>
-      <c r="F154" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="14">
+      <c r="F154" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Metriocnemus_brusti</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15">
       <c r="A155" s="1" t="s">
         <v>349</v>
       </c>
@@ -6395,12 +6406,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F155" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="14">
+      <c r="F155" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ichneumonidae_Orthocentrus_NA</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15">
       <c r="A156" s="1" t="s">
         <v>350</v>
       </c>
@@ -6417,12 +6428,12 @@
         <f t="shared" si="4"/>
         <v>moniliatus</v>
       </c>
-      <c r="F156" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="14">
+      <c r="F156" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Braconidae_Hormius_moniliatus</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15">
       <c r="A157" s="1" t="s">
         <v>353</v>
       </c>
@@ -6435,12 +6446,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F157" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="14">
+      <c r="F157" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Eupodidae_NA</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15">
       <c r="A158" s="1" t="s">
         <v>355</v>
       </c>
@@ -6455,12 +6466,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F158" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="14">
+      <c r="F158" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Trombidiidae_Trombidium_NA</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15">
       <c r="A159" s="1" t="s">
         <v>358</v>
       </c>
@@ -6473,12 +6484,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F159" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="14">
+      <c r="F159" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Eupodidae_NA</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15">
       <c r="A160" s="1" t="s">
         <v>359</v>
       </c>
@@ -6495,12 +6506,12 @@
         <f t="shared" si="4"/>
         <v>tundrae</v>
       </c>
-      <c r="F160" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="14">
+      <c r="F160" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Calliphoridae_Protocalliphora_tundrae</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15">
       <c r="A161" s="1" t="s">
         <v>363</v>
       </c>
@@ -6517,12 +6528,12 @@
         <f t="shared" si="4"/>
         <v>nigripalpis</v>
       </c>
-      <c r="F161" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="14">
+      <c r="F161" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Scathophagidae_Scathophaga_nigripalpis</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15">
       <c r="A162" s="1" t="s">
         <v>365</v>
       </c>
@@ -6539,12 +6550,12 @@
         <f t="shared" si="4"/>
         <v>hoeli</v>
       </c>
-      <c r="F162" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="14">
+      <c r="F162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Empididae_Rhamphomyia_hoeli</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15">
       <c r="A163" s="1" t="s">
         <v>367</v>
       </c>
@@ -6561,12 +6572,12 @@
         <f t="shared" si="4"/>
         <v>anderseni</v>
       </c>
-      <c r="F163" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="14">
+      <c r="F163" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Tanytarsus_anderseni</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15">
       <c r="A164" s="1" t="s">
         <v>368</v>
       </c>
@@ -6583,12 +6594,12 @@
         <f t="shared" si="4"/>
         <v>bertrami</v>
       </c>
-      <c r="F164" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="14">
+      <c r="F164" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Diamesa_bertrami</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15">
       <c r="A165" s="1" t="s">
         <v>370</v>
       </c>
@@ -6605,12 +6616,12 @@
         <f t="shared" si="4"/>
         <v>groenlandica</v>
       </c>
-      <c r="F165" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="14">
+      <c r="F165" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Anthomyiidae_Egle_groenlandica</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15">
       <c r="A166" s="1" t="s">
         <v>373</v>
       </c>
@@ -6625,12 +6636,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F166" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="14">
+      <c r="F166" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Bradysia_NA</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15">
       <c r="A167" s="1" t="s">
         <v>375</v>
       </c>
@@ -6647,12 +6658,12 @@
         <f t="shared" si="4"/>
         <v>jemtlandica</v>
       </c>
-      <c r="F167" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="14">
+      <c r="F167" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Prosmittia_jemtlandica</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15">
       <c r="A168" s="1" t="s">
         <v>376</v>
       </c>
@@ -6669,12 +6680,12 @@
         <f t="shared" si="4"/>
         <v>extrema</v>
       </c>
-      <c r="F168" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="14">
+      <c r="F168" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_extrema</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15">
       <c r="A169" s="1" t="s">
         <v>378</v>
       </c>
@@ -6689,12 +6700,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F169" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="14">
+      <c r="F169" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15">
       <c r="A170" s="1" t="s">
         <v>379</v>
       </c>
@@ -6709,12 +6720,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F170" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="14">
+      <c r="F170" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Diamesa_NA</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15">
       <c r="A171" s="1" t="s">
         <v>380</v>
       </c>
@@ -6729,12 +6740,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F171" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="14">
+      <c r="F171" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15">
       <c r="A172" s="1" t="s">
         <v>381</v>
       </c>
@@ -6751,12 +6762,12 @@
         <f t="shared" si="4"/>
         <v>borealis</v>
       </c>
-      <c r="F172" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="14">
+      <c r="F172" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Dictynidae_Emblyna_borealis</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15">
       <c r="A173" s="1" t="s">
         <v>385</v>
       </c>
@@ -6773,12 +6784,12 @@
         <f t="shared" si="4"/>
         <v>pilosa</v>
       </c>
-      <c r="F173" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="14">
+      <c r="F173" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Piophilidae_Lasiopiophila_pilosa</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15">
       <c r="A174" s="1" t="s">
         <v>389</v>
       </c>
@@ -6795,12 +6806,12 @@
         <f t="shared" si="4"/>
         <v>filicauda</v>
       </c>
-      <c r="F174" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="14">
+      <c r="F174" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Empididae_Rhamphomyia_filicauda</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15">
       <c r="A175" s="1" t="s">
         <v>390</v>
       </c>
@@ -6817,12 +6828,12 @@
         <f t="shared" si="4"/>
         <v>crassinervis</v>
       </c>
-      <c r="F175" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="14">
+      <c r="F175" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Procladius_crassinervis</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15">
       <c r="A176" s="1" t="s">
         <v>391</v>
       </c>
@@ -6839,12 +6850,12 @@
         <f t="shared" si="4"/>
         <v>apicalis</v>
       </c>
-      <c r="F176" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="14">
+      <c r="F176" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Scathophagidae_Scathophaga_apicalis</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15">
       <c r="A177" s="1" t="s">
         <v>393</v>
       </c>
@@ -6861,12 +6872,12 @@
         <f t="shared" si="4"/>
         <v>cf_extrema</v>
       </c>
-      <c r="F177" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="14">
+      <c r="F177" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Smittia_cf_extrema</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15">
       <c r="A178" s="1" t="s">
         <v>394</v>
       </c>
@@ -6883,12 +6894,12 @@
         <f t="shared" si="4"/>
         <v>aquilonia</v>
       </c>
-      <c r="F178" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="14">
+      <c r="F178" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Agromyzidae_Phytomyza_aquilonia</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15">
       <c r="A179" s="1" t="s">
         <v>397</v>
       </c>
@@ -6905,12 +6916,12 @@
         <f t="shared" si="4"/>
         <v>aberrata</v>
       </c>
-      <c r="F179" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="14">
+      <c r="F179" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Diamesa_aberrata</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15">
       <c r="A180" s="1" t="s">
         <v>399</v>
       </c>
@@ -6927,12 +6938,12 @@
         <f t="shared" si="4"/>
         <v>tunicata</v>
       </c>
-      <c r="F180" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="14">
+      <c r="F180" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Anthomyiidae_Eutrichota_tunicata</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15">
       <c r="A181" s="1" t="s">
         <v>402</v>
       </c>
@@ -6947,12 +6958,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F181" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="14">
+      <c r="F181" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Procladius_NA</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15">
       <c r="A182" s="1" t="s">
         <v>403</v>
       </c>
@@ -6967,12 +6978,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F182" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="14">
+      <c r="F182" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Bryophaenocladius_NA</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15">
       <c r="A183" s="1" t="s">
         <v>405</v>
       </c>
@@ -6987,12 +6998,12 @@
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="F183" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="14">
+      <c r="F183" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ichneumonidae_Diplazon_NA</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15">
       <c r="A184" s="1" t="s">
         <v>407</v>
       </c>
@@ -7009,12 +7020,12 @@
         <f t="shared" si="4"/>
         <v>arctica</v>
       </c>
-      <c r="F184" s="2" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="14">
+      <c r="F184" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Tipulidae_Tipula_arctica</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15">
       <c r="A185" s="1" t="s">
         <v>411</v>
       </c>
@@ -7031,12 +7042,12 @@
         <f t="shared" ref="E185:E247" si="6">IFERROR(RIGHT(D185, LEN(D185)-IFERROR(FIND(" ", D185),"")), "NA")</f>
         <v>atriceps</v>
       </c>
-      <c r="F185" s="2" t="e">
-        <f t="shared" ref="F185:F247" ca="1" si="7">_1__xlfn.TEXTJOIN("_", TRUE, B185, C185, E185)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="14">
+      <c r="F185" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Calliphoridae_Protophormia_atriceps</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15">
       <c r="A186" s="1" t="s">
         <v>414</v>
       </c>
@@ -7053,12 +7064,12 @@
         <f t="shared" si="6"/>
         <v>occidentalis</v>
       </c>
-      <c r="F186" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="14">
+      <c r="F186" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Anthomyiidae_Zaphne_occidentalis</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15">
       <c r="A187" s="1" t="s">
         <v>416</v>
       </c>
@@ -7075,12 +7086,12 @@
         <f t="shared" si="6"/>
         <v>hybrida</v>
       </c>
-      <c r="F187" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="14">
+      <c r="F187" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Limoniidae_Symplecta_hybrida</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15">
       <c r="A188" s="1" t="s">
         <v>418</v>
       </c>
@@ -7097,12 +7108,12 @@
         <f t="shared" si="6"/>
         <v>modesta</v>
       </c>
-      <c r="F188" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="14">
+      <c r="F188" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Lycoriella_modesta</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15">
       <c r="A189" s="1" t="s">
         <v>419</v>
       </c>
@@ -7117,12 +7128,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F189" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="14">
+      <c r="F189" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Camptochaeta_NA</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15">
       <c r="A190" s="1" t="s">
         <v>420</v>
       </c>
@@ -7139,12 +7150,12 @@
         <f t="shared" si="6"/>
         <v>hoeli</v>
       </c>
-      <c r="F190" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="14">
+      <c r="F190" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Ichneumonidae_Saotis_hoeli</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15">
       <c r="A191" s="1" t="s">
         <v>423</v>
       </c>
@@ -7159,12 +7170,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F191" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="14">
+      <c r="F191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Braconidae_Aphidius_NA</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15">
       <c r="A192" s="1" t="s">
         <v>425</v>
       </c>
@@ -7181,12 +7192,12 @@
         <f t="shared" si="6"/>
         <v>aenea</v>
       </c>
-      <c r="F192" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="14">
+      <c r="F192" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Tachinidae_Peleteria_aenea</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15">
       <c r="A193" s="1" t="s">
         <v>428</v>
       </c>
@@ -7203,12 +7214,12 @@
         <f t="shared" si="6"/>
         <v>cochleata</v>
       </c>
-      <c r="F193" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="14">
+      <c r="F193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sciaridae_Lycoriella_cochleata</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15">
       <c r="A194" s="1" t="s">
         <v>430</v>
       </c>
@@ -7223,12 +7234,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F194" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="14">
+      <c r="F194" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Chironomidae_Chaetocladius_NA</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15">
       <c r="A195" s="1" t="s">
         <v>432</v>
       </c>
@@ -7243,12 +7254,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F195" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="14">
+      <c r="F195" s="2" t="str">
+        <f t="shared" ref="F195:F258" si="7">_xlfn.TEXTJOIN("_", TRUE, B195, C195, E195)</f>
+        <v>Chironomidae_Allocladius_NA</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15">
       <c r="A196" s="1" t="s">
         <v>434</v>
       </c>
@@ -7263,12 +7274,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F196" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="14">
+      <c r="F196" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15">
       <c r="A197" s="1" t="s">
         <v>435</v>
       </c>
@@ -7283,12 +7294,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F197" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="14">
+      <c r="F197" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_NA</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15">
       <c r="A198" s="1" t="s">
         <v>436</v>
       </c>
@@ -7305,12 +7316,12 @@
         <f t="shared" si="6"/>
         <v>almqvistii</v>
       </c>
-      <c r="F198" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="14">
+      <c r="F198" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Muscidae_Spilogona_almqvistii</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15">
       <c r="A199" s="1" t="s">
         <v>438</v>
       </c>
@@ -7325,12 +7336,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F199" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="14">
+      <c r="F199" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Syrphidae_Platycheirus_NA</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15">
       <c r="A200" s="1" t="s">
         <v>440</v>
       </c>
@@ -7347,12 +7358,12 @@
         <f t="shared" si="6"/>
         <v>brachytomus</v>
       </c>
-      <c r="F200" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" s="6" customFormat="1" ht="14">
+      <c r="F200" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_brachytomus</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="6" customFormat="1" ht="15">
       <c r="A201" s="4" t="s">
         <v>442</v>
       </c>
@@ -7369,12 +7380,12 @@
         <f t="shared" si="6"/>
         <v>frontata</v>
       </c>
-      <c r="F201" s="6" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="14">
+      <c r="F201" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Anthomyiidae_Zaphne_frontata</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15">
       <c r="A202" s="1" t="s">
         <v>444</v>
       </c>
@@ -7391,12 +7402,12 @@
         <f>IFERROR(RIGHT(D202, LEN(D202)-IFERROR(FIND(" ", D202),"")), "NA")</f>
         <v>tarsatus</v>
       </c>
-      <c r="F202" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="14">
+      <c r="F202" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Syrphidae_Parasyrphus_tarsatus</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15">
       <c r="A203" s="1" t="s">
         <v>447</v>
       </c>
@@ -7413,12 +7424,12 @@
         <f t="shared" si="6"/>
         <v>bidentata</v>
       </c>
-      <c r="F203" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="14">
+      <c r="F203" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Muscidae_Phaonia_bidentata</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15">
       <c r="A204" s="1" t="s">
         <v>450</v>
       </c>
@@ -7435,12 +7446,12 @@
         <f t="shared" si="6"/>
         <v>laborator</v>
       </c>
-      <c r="F204" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="14">
+      <c r="F204" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Buathra_laborator</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15">
       <c r="A205" s="1" t="s">
         <v>453</v>
       </c>
@@ -7457,12 +7468,12 @@
         <f t="shared" si="6"/>
         <v>sodalis</v>
       </c>
-      <c r="F205" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="14">
+      <c r="F205" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Pimpla_sodalis</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15">
       <c r="A206" s="1" t="s">
         <v>456</v>
       </c>
@@ -7477,12 +7488,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F206" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="14">
+      <c r="F206" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Hyposoter_NA</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15">
       <c r="A207" s="1" t="s">
         <v>458</v>
       </c>
@@ -7497,12 +7508,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F207" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="14">
+      <c r="F207" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Diamesa_NA</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15">
       <c r="A208" s="1" t="s">
         <v>459</v>
       </c>
@@ -7517,12 +7528,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F208" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="14">
+      <c r="F208" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Pseudokiefferiella_NA</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15">
       <c r="A209" s="1" t="s">
         <v>461</v>
       </c>
@@ -7539,12 +7550,12 @@
         <f t="shared" si="6"/>
         <v>obriaini</v>
       </c>
-      <c r="F209" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="14">
+      <c r="F209" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Tokunagaia_obriaini</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15">
       <c r="A210" s="1" t="s">
         <v>463</v>
       </c>
@@ -7561,12 +7572,12 @@
         <f t="shared" si="6"/>
         <v>riparia</v>
       </c>
-      <c r="F210" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="14">
+      <c r="F210" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sciaridae_Lycoriella_riparia</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15">
       <c r="A211" s="1" t="s">
         <v>465</v>
       </c>
@@ -7583,12 +7594,12 @@
         <f t="shared" si="6"/>
         <v>flagellifera</v>
       </c>
-      <c r="F211" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="14">
+      <c r="F211" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sciaridae_Camptochaeta_flagellifera</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15">
       <c r="A212" s="1" t="s">
         <v>467</v>
       </c>
@@ -7605,12 +7616,12 @@
         <f t="shared" si="6"/>
         <v>anderseni</v>
       </c>
-      <c r="F212" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="14">
+      <c r="F212" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Tanytarsus_anderseni</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15">
       <c r="A213" s="1" t="s">
         <v>468</v>
       </c>
@@ -7623,12 +7634,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F213" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="14">
+      <c r="F213" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Lebertiidae_NA</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15">
       <c r="A214" s="1" t="s">
         <v>469</v>
       </c>
@@ -7641,12 +7652,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F214" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="14">
+      <c r="F214" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Erythraeidae_NA</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15">
       <c r="A215" s="1" t="s">
         <v>471</v>
       </c>
@@ -7663,12 +7674,12 @@
         <f t="shared" si="6"/>
         <v>frigida</v>
       </c>
-      <c r="F215" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="14">
+      <c r="F215" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Mycetophilidae_Exechia_frigida</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15">
       <c r="A216" s="1" t="s">
         <v>473</v>
       </c>
@@ -7685,12 +7696,12 @@
         <f t="shared" si="6"/>
         <v>patens</v>
       </c>
-      <c r="F216" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="14">
+      <c r="F216" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Cricotopus_patens</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15">
       <c r="A217" s="1" t="s">
         <v>475</v>
       </c>
@@ -7703,12 +7714,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F217" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="14">
+      <c r="F217" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_NA</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15">
       <c r="A218" s="1" t="s">
         <v>476</v>
       </c>
@@ -7725,12 +7736,12 @@
         <f t="shared" si="6"/>
         <v>chapmani</v>
       </c>
-      <c r="F218" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="14">
+      <c r="F218" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Rheocricotopus_chapmani</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15">
       <c r="A219" s="1" t="s">
         <v>479</v>
       </c>
@@ -7745,12 +7756,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F219" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="14">
+      <c r="F219" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15">
       <c r="A220" s="1" t="s">
         <v>480</v>
       </c>
@@ -7767,12 +7778,12 @@
         <f t="shared" si="6"/>
         <v>asquamatus</v>
       </c>
-      <c r="F220" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="14">
+      <c r="F220" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_asquamatus</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15">
       <c r="A221" s="1" t="s">
         <v>482</v>
       </c>
@@ -7789,12 +7800,12 @@
         <f t="shared" si="6"/>
         <v>delicata</v>
       </c>
-      <c r="F221" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="14">
+      <c r="F221" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sciaridae_Camptochaeta_delicata</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15">
       <c r="A222" s="1" t="s">
         <v>484</v>
       </c>
@@ -7811,12 +7822,12 @@
         <f t="shared" si="6"/>
         <v>ursinus</v>
       </c>
-      <c r="F222" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="14">
+      <c r="F222" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Metriocnemus_ursinus</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15">
       <c r="A223" s="1" t="s">
         <v>486</v>
       </c>
@@ -7833,12 +7844,12 @@
         <f t="shared" si="6"/>
         <v>glacialis</v>
       </c>
-      <c r="F223" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="14">
+      <c r="F223" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Acrolyta_glacialis</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15">
       <c r="A224" s="1" t="s">
         <v>487</v>
       </c>
@@ -7855,12 +7866,12 @@
         <f t="shared" si="6"/>
         <v>asper</v>
       </c>
-      <c r="F224" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="14">
+      <c r="F224" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Orthocentrus_asper</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15">
       <c r="A225" s="1" t="s">
         <v>489</v>
       </c>
@@ -7875,12 +7886,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F225" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="14">
+      <c r="F225" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ichneumonidae_Syrphoctonus_NA</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15">
       <c r="A226" s="1" t="s">
         <v>490</v>
       </c>
@@ -7897,12 +7908,12 @@
         <f t="shared" si="6"/>
         <v>perennis</v>
       </c>
-      <c r="F226" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="14">
+      <c r="F226" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Chaetocladius_perennis</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15">
       <c r="A227" s="1" t="s">
         <v>492</v>
       </c>
@@ -7919,12 +7930,12 @@
         <f t="shared" si="6"/>
         <v>heliomesonyctios</v>
       </c>
-      <c r="F227" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="14">
+      <c r="F227" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Tanytarsus_heliomesonyctios</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15">
       <c r="A228" s="1" t="s">
         <v>494</v>
       </c>
@@ -7939,12 +7950,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F228" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="14">
+      <c r="F228" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Smittia_NA</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15">
       <c r="A229" s="1" t="s">
         <v>495</v>
       </c>
@@ -7961,12 +7972,12 @@
         <f t="shared" si="6"/>
         <v>cultriger</v>
       </c>
-      <c r="F229" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="14">
+      <c r="F229" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Diplocladius_cultriger</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15">
       <c r="A230" s="1" t="s">
         <v>498</v>
       </c>
@@ -7981,12 +7992,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F230" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="14">
+      <c r="F230" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Corynoneura_NA</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15">
       <c r="A231" s="1" t="s">
         <v>499</v>
       </c>
@@ -8003,12 +8014,12 @@
         <f t="shared" si="6"/>
         <v>brevinervis</v>
       </c>
-      <c r="F231" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="14">
+      <c r="F231" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Paraphaenocladius_brevinervis</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15">
       <c r="A232" s="1" t="s">
         <v>501</v>
       </c>
@@ -8023,12 +8034,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F232" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="14">
+      <c r="F232" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Metriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15">
       <c r="A233" s="1" t="s">
         <v>502</v>
       </c>
@@ -8045,12 +8056,12 @@
         <f t="shared" si="6"/>
         <v>minimus</v>
       </c>
-      <c r="F233" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="14">
+      <c r="F233" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_minimus</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15">
       <c r="A234" s="1" t="s">
         <v>504</v>
       </c>
@@ -8067,12 +8078,12 @@
         <f t="shared" si="6"/>
         <v>cirriventris</v>
       </c>
-      <c r="F234" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="14">
+      <c r="F234" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Phoridae_Megaselia_cirriventris</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15">
       <c r="A235" s="1" t="s">
         <v>506</v>
       </c>
@@ -8089,12 +8100,12 @@
         <f t="shared" si="6"/>
         <v>atomaria</v>
       </c>
-      <c r="F235" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="14">
+      <c r="F235" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sciaridae_Scatopsciara_atomaria</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15">
       <c r="A236" s="1" t="s">
         <v>509</v>
       </c>
@@ -8111,12 +8122,12 @@
         <f t="shared" si="6"/>
         <v>asquamatus</v>
       </c>
-      <c r="F236" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="14">
+      <c r="F236" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_asquamatus</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15">
       <c r="A237" s="1" t="s">
         <v>510</v>
       </c>
@@ -8133,12 +8144,12 @@
         <f t="shared" si="6"/>
         <v>abstrusus</v>
       </c>
-      <c r="F237" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="14">
+      <c r="F237" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ceratopogonidae_Ceratopogon_abstrusus</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15">
       <c r="A238" s="1" t="s">
         <v>513</v>
       </c>
@@ -8155,12 +8166,12 @@
         <f t="shared" si="6"/>
         <v>cadaverina</v>
       </c>
-      <c r="F238" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="14">
+      <c r="F238" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Calliphoridae_Cynomya_cadaverina</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15">
       <c r="A239" s="1" t="s">
         <v>516</v>
       </c>
@@ -8177,12 +8188,12 @@
         <f t="shared" si="6"/>
         <v>terraenovae</v>
       </c>
-      <c r="F239" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="14">
+      <c r="F239" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Calliphoridae_Protophormia_terraenovae</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15">
       <c r="A240" s="1" t="s">
         <v>518</v>
       </c>
@@ -8197,12 +8208,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F240" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="14">
+      <c r="F240" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Syrphidae_Platycheirus_NA</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15">
       <c r="A241" s="1" t="s">
         <v>519</v>
       </c>
@@ -8219,12 +8230,12 @@
         <f t="shared" si="6"/>
         <v>segnis</v>
       </c>
-      <c r="F241" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="14">
+      <c r="F241" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Muscidae_Drymeia_segnis</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15">
       <c r="A242" s="1" t="s">
         <v>521</v>
       </c>
@@ -8241,12 +8252,12 @@
         <f t="shared" si="6"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F242" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="14">
+      <c r="F242" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Syrphidae_Platycheirus_groenlandicus</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15">
       <c r="A243" s="1" t="s">
         <v>523</v>
       </c>
@@ -8263,12 +8274,12 @@
         <f t="shared" si="6"/>
         <v>lundbecki</v>
       </c>
-      <c r="F243" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="14">
+      <c r="F243" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Tipulidae_Nephrotoma_lundbecki</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15">
       <c r="A244" s="1" t="s">
         <v>526</v>
       </c>
@@ -8285,12 +8296,12 @@
         <f t="shared" si="6"/>
         <v>groenlandica</v>
       </c>
-      <c r="F244" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="14">
+      <c r="F244" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Muscidae_Drymeia_groenlandica</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15">
       <c r="A245" s="1" t="s">
         <v>528</v>
       </c>
@@ -8305,12 +8316,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F245" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="14">
+      <c r="F245" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Culicidae_Aedes_NA</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15">
       <c r="A246" s="1" t="s">
         <v>531</v>
       </c>
@@ -8325,12 +8336,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F246" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="14">
+      <c r="F246" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Psectrocladius_NA</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15">
       <c r="A247" s="1" t="s">
         <v>532</v>
       </c>
@@ -8345,12 +8356,12 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="F247" s="2" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="14">
+      <c r="F247" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ceratopogonidae_Culicoides_NA</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15">
       <c r="A248" s="1" t="s">
         <v>534</v>
       </c>
@@ -8365,12 +8376,12 @@
         <f t="shared" ref="E248:E310" si="8">IFERROR(RIGHT(D248, LEN(D248)-IFERROR(FIND(" ", D248),"")), "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F248" s="2" t="e">
-        <f t="shared" ref="F248:F310" ca="1" si="9">_1__xlfn.TEXTJOIN("_", TRUE, B248, C248, E248)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="14">
+      <c r="F248" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Metriocnemus_NA</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15">
       <c r="A249" s="1" t="s">
         <v>535</v>
       </c>
@@ -8387,12 +8398,12 @@
         <f t="shared" si="8"/>
         <v>flavipeda</v>
       </c>
-      <c r="F249" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="14">
+      <c r="F249" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sciaridae_Lycoriella_flavipeda</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15">
       <c r="A250" s="1" t="s">
         <v>537</v>
       </c>
@@ -8409,12 +8420,12 @@
         <f t="shared" si="8"/>
         <v>arctica</v>
       </c>
-      <c r="F250" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="14">
+      <c r="F250" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Diamesa_arctica</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15">
       <c r="A251" s="1" t="s">
         <v>538</v>
       </c>
@@ -8431,12 +8442,12 @@
         <f t="shared" si="8"/>
         <v>ninae</v>
       </c>
-      <c r="F251" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="14">
+      <c r="F251" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_ninae</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15">
       <c r="A252" s="1" t="s">
         <v>540</v>
       </c>
@@ -8453,12 +8464,12 @@
         <f t="shared" si="8"/>
         <v>puccinelliae</v>
       </c>
-      <c r="F252" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="14">
+      <c r="F252" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Agromyzidae_Chromatomyia_puccinelliae</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15">
       <c r="A253" s="1" t="s">
         <v>543</v>
       </c>
@@ -8475,12 +8486,12 @@
         <f t="shared" si="8"/>
         <v>brachytomus</v>
       </c>
-      <c r="F253" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="14">
+      <c r="F253" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Limnophyes_brachytomus</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15">
       <c r="A254" s="1" t="s">
         <v>544</v>
       </c>
@@ -8495,12 +8506,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F254" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="14">
+      <c r="F254" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15">
       <c r="A255" s="1" t="s">
         <v>545</v>
       </c>
@@ -8517,12 +8528,12 @@
         <f t="shared" si="8"/>
         <v>eurynotus</v>
       </c>
-      <c r="F255" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="14">
+      <c r="F255" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Metriocnemus_eurynotus</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15">
       <c r="A256" s="1" t="s">
         <v>547</v>
       </c>
@@ -8539,12 +8550,12 @@
         <f t="shared" si="8"/>
         <v>gelidus</v>
       </c>
-      <c r="F256" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="14">
+      <c r="F256" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Orthocladius_gelidus</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15">
       <c r="A257" s="1" t="s">
         <v>549</v>
       </c>
@@ -8561,12 +8572,12 @@
         <f t="shared" si="8"/>
         <v>oblidens</v>
       </c>
-      <c r="F257" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="14">
+      <c r="F257" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Orthocladius_oblidens</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15">
       <c r="A258" s="1" t="s">
         <v>551</v>
       </c>
@@ -8583,12 +8594,12 @@
         <f t="shared" si="8"/>
         <v>chorea</v>
       </c>
-      <c r="F258" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="14">
+      <c r="F258" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Chironomidae_Diamesa_chorea</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15">
       <c r="A259" s="1" t="s">
         <v>553</v>
       </c>
@@ -8605,12 +8616,12 @@
         <f t="shared" si="8"/>
         <v>olivaceus</v>
       </c>
-      <c r="F259" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="14">
+      <c r="F259" s="2" t="str">
+        <f t="shared" ref="F259:F322" si="9">_xlfn.TEXTJOIN("_", TRUE, B259, C259, E259)</f>
+        <v>Chironomidae_Orthocladius_olivaceus</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15">
       <c r="A260" s="1" t="s">
         <v>555</v>
       </c>
@@ -8627,12 +8638,12 @@
         <f t="shared" si="8"/>
         <v>impensus</v>
       </c>
-      <c r="F260" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="14">
+      <c r="F260" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Paraphaenocladius_impensus</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15">
       <c r="A261" s="1" t="s">
         <v>556</v>
       </c>
@@ -8649,12 +8660,12 @@
         <f t="shared" si="8"/>
         <v>triannulatus</v>
       </c>
-      <c r="F261" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="14">
+      <c r="F261" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Cricotopus_triannulatus</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15">
       <c r="A262" s="1" t="s">
         <v>558</v>
       </c>
@@ -8671,12 +8682,12 @@
         <f t="shared" si="8"/>
         <v>pumilio</v>
       </c>
-      <c r="F262" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="14">
+      <c r="F262" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Limnophyes_pumilio</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15">
       <c r="A263" s="1" t="s">
         <v>559</v>
       </c>
@@ -8693,12 +8704,12 @@
         <f t="shared" si="8"/>
         <v>impensus</v>
       </c>
-      <c r="F263" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="14">
+      <c r="F263" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Paraphaenocladius_impensus</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15">
       <c r="A264" s="1" t="s">
         <v>560</v>
       </c>
@@ -8715,12 +8726,12 @@
         <f t="shared" si="8"/>
         <v>brachytomus</v>
       </c>
-      <c r="F264" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="14">
+      <c r="F264" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Limnophyes_brachytomus</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15">
       <c r="A265" s="1" t="s">
         <v>561</v>
       </c>
@@ -8737,12 +8748,12 @@
         <f t="shared" si="8"/>
         <v>frigidus</v>
       </c>
-      <c r="F265" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="14">
+      <c r="F265" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Orthocladius_frigidus</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15">
       <c r="A266" s="1" t="s">
         <v>563</v>
       </c>
@@ -8759,12 +8770,12 @@
         <f t="shared" si="8"/>
         <v>janetscheki</v>
       </c>
-      <c r="F266" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="14">
+      <c r="F266" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Sciaridae_Lycoriella_janetscheki</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15">
       <c r="A267" s="1" t="s">
         <v>565</v>
       </c>
@@ -8781,12 +8792,12 @@
         <f t="shared" si="8"/>
         <v>holmgreni</v>
       </c>
-      <c r="F267" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="14">
+      <c r="F267" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Chaetocladius_holmgreni</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15">
       <c r="A268" s="1" t="s">
         <v>567</v>
       </c>
@@ -8803,12 +8814,12 @@
         <f t="shared" si="8"/>
         <v>subletteorum</v>
       </c>
-      <c r="F268" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="14">
+      <c r="F268" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Orthocladius_subletteorum</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15">
       <c r="A269" s="1" t="s">
         <v>569</v>
       </c>
@@ -8823,12 +8834,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F269" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="14">
+      <c r="F269" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Orthocladius_NA</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15">
       <c r="A270" s="1" t="s">
         <v>570</v>
       </c>
@@ -8843,12 +8854,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F270" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="14">
+      <c r="F270" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Sciaridae_Lycoriella_NA</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15">
       <c r="A271" s="1" t="s">
         <v>571</v>
       </c>
@@ -8865,12 +8876,12 @@
         <f t="shared" si="8"/>
         <v>nanseni</v>
       </c>
-      <c r="F271" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="14">
+      <c r="F271" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Allocladius_nanseni</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15">
       <c r="A272" s="1" t="s">
         <v>573</v>
       </c>
@@ -8887,12 +8898,12 @@
         <f t="shared" si="8"/>
         <v>nigrita</v>
       </c>
-      <c r="F272" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="14">
+      <c r="F272" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Empididae_Rhamphomyia_nigrita</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15">
       <c r="A273" s="1" t="s">
         <v>575</v>
       </c>
@@ -8909,12 +8920,12 @@
         <f t="shared" si="8"/>
         <v>sp_TE13</v>
       </c>
-      <c r="F273" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="14">
+      <c r="F273" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Chironomus_sp_TE13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15">
       <c r="A274" s="1" t="s">
         <v>577</v>
       </c>
@@ -8931,12 +8942,12 @@
         <f t="shared" si="8"/>
         <v>horstmanni</v>
       </c>
-      <c r="F274" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="14">
+      <c r="F274" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campoletis_horstmanni</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15">
       <c r="A275" s="1" t="s">
         <v>579</v>
       </c>
@@ -8953,12 +8964,12 @@
         <f t="shared" si="8"/>
         <v>hecla</v>
       </c>
-      <c r="F275" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="14">
+      <c r="F275" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Pieridae_Colias_hecla</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15">
       <c r="A276" s="1" t="s">
         <v>583</v>
       </c>
@@ -8975,12 +8986,12 @@
         <f t="shared" si="8"/>
         <v>polaris</v>
       </c>
-      <c r="F276" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="14">
+      <c r="F276" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Nymphalidae_Boloria_polaris</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15">
       <c r="A277" s="1" t="s">
         <v>587</v>
       </c>
@@ -8997,12 +9008,12 @@
         <f t="shared" si="8"/>
         <v>chariclea</v>
       </c>
-      <c r="F277" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="14">
+      <c r="F277" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Nymphalidae_Boloria_chariclea</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15">
       <c r="A278" s="1" t="s">
         <v>589</v>
       </c>
@@ -9019,12 +9030,12 @@
         <f t="shared" si="8"/>
         <v>aquilonana</v>
       </c>
-      <c r="F278" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="14">
+      <c r="F278" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Tortricidae_Argyroploce_aquilonana</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15">
       <c r="A279" s="1" t="s">
         <v>593</v>
       </c>
@@ -9041,12 +9052,12 @@
         <f t="shared" si="8"/>
         <v>torvalis</v>
       </c>
-      <c r="F279" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="14">
+      <c r="F279" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Crambidae_Udea_torvalis</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15">
       <c r="A280" s="1" t="s">
         <v>597</v>
       </c>
@@ -9063,12 +9074,12 @@
         <f t="shared" si="8"/>
         <v>centuriella</v>
       </c>
-      <c r="F280" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="14">
+      <c r="F280" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Crambidae_Gesneria_centuriella</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15">
       <c r="A281" s="1" t="s">
         <v>600</v>
       </c>
@@ -9085,12 +9096,12 @@
         <f t="shared" si="8"/>
         <v>parilis</v>
       </c>
-      <c r="F281" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="14">
+      <c r="F281" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Noctuidae_Syngrapha_parilis</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15">
       <c r="A282" s="1" t="s">
         <v>603</v>
       </c>
@@ -9107,12 +9118,12 @@
         <f t="shared" si="8"/>
         <v>torvus</v>
       </c>
-      <c r="F282" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="14">
+      <c r="F282" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Syrphidae_Syrphus_torvus</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15">
       <c r="A283" s="1" t="s">
         <v>605</v>
       </c>
@@ -9129,12 +9140,12 @@
         <f t="shared" si="8"/>
         <v>pictipennis</v>
       </c>
-      <c r="F283" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="14">
+      <c r="F283" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Anthomyiidae_Fucellia_pictipennis</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15">
       <c r="A284" s="1" t="s">
         <v>607</v>
       </c>
@@ -9151,12 +9162,12 @@
         <f t="shared" si="8"/>
         <v>discoensis</v>
       </c>
-      <c r="F284" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="14">
+      <c r="F284" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Ichneumon_discoensis</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15">
       <c r="A285" s="1" t="s">
         <v>610</v>
       </c>
@@ -9173,12 +9184,12 @@
         <f t="shared" si="8"/>
         <v>crassipalpis</v>
       </c>
-      <c r="F285" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="14">
+      <c r="F285" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Anthomyiidae_Myopina_crassipalpis</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15">
       <c r="A286" s="1" t="s">
         <v>613</v>
       </c>
@@ -9195,12 +9206,12 @@
         <f t="shared" si="8"/>
         <v>arctica</v>
       </c>
-      <c r="F286" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="14">
+      <c r="F286" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Anthomyiidae_Paradelia_arctica</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15">
       <c r="A287" s="1" t="s">
         <v>616</v>
       </c>
@@ -9217,12 +9228,12 @@
         <f t="shared" si="8"/>
         <v>deflorata</v>
       </c>
-      <c r="F287" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="14">
+      <c r="F287" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Muscidae_Spilogona_deflorata</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15">
       <c r="A288" s="1" t="s">
         <v>619</v>
       </c>
@@ -9239,12 +9250,12 @@
         <f t="shared" si="8"/>
         <v>puberula</v>
       </c>
-      <c r="F288" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="14">
+      <c r="F288" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Muscidae_Spilogona_puberula</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15">
       <c r="A289" s="1" t="s">
         <v>621</v>
       </c>
@@ -9261,12 +9272,12 @@
         <f t="shared" si="8"/>
         <v>cf_crassinervis</v>
       </c>
-      <c r="F289" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="14">
+      <c r="F289" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Procladius_cf_crassinervis</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15">
       <c r="A290" s="1" t="s">
         <v>623</v>
       </c>
@@ -9283,12 +9294,12 @@
         <f t="shared" si="8"/>
         <v>lariae</v>
       </c>
-      <c r="F290" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="14">
+      <c r="F290" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Ichneumon_lariae</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15">
       <c r="A291" s="1" t="s">
         <v>625</v>
       </c>
@@ -9305,12 +9316,12 @@
         <f t="shared" si="8"/>
         <v>cf_scutellata</v>
       </c>
-      <c r="F291" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="14">
+      <c r="F291" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Chironomidae_Tokunagaia_cf_scutellata</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15">
       <c r="A292" s="1" t="s">
         <v>627</v>
       </c>
@@ -9327,12 +9338,12 @@
         <f t="shared" si="8"/>
         <v>deichmanni</v>
       </c>
-      <c r="F292" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="14">
+      <c r="F292" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Hyposoter_deichmanni</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15">
       <c r="A293" s="1" t="s">
         <v>629</v>
       </c>
@@ -9349,12 +9360,12 @@
         <f t="shared" si="8"/>
         <v>lugubris</v>
       </c>
-      <c r="F293" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="14">
+      <c r="F293" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Braconidae_Microplitis_lugubris</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15">
       <c r="A294" s="1" t="s">
         <v>632</v>
       </c>
@@ -9371,12 +9382,12 @@
         <f t="shared" si="8"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F294" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" ht="14">
+      <c r="F294" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Aoplus_groenlandicus</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15">
       <c r="A295" s="1" t="s">
         <v>635</v>
       </c>
@@ -9391,12 +9402,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F295" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="14">
+      <c r="F295" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Braconidae_Cotesia_NA</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15">
       <c r="A296" s="1" t="s">
         <v>636</v>
       </c>
@@ -9413,12 +9424,12 @@
         <f t="shared" si="8"/>
         <v>leechi</v>
       </c>
-      <c r="F296" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="14">
+      <c r="F296" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Cryptus_leechi</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15">
       <c r="A297" s="1" t="s">
         <v>638</v>
       </c>
@@ -9435,12 +9446,12 @@
         <f t="shared" si="8"/>
         <v>lituratus</v>
       </c>
-      <c r="F297" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="14">
+      <c r="F297" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campodorus_lituratus</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15">
       <c r="A298" s="1" t="s">
         <v>641</v>
       </c>
@@ -9457,12 +9468,12 @@
         <f t="shared" si="8"/>
         <v>gelidus</v>
       </c>
-      <c r="F298" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="14">
+      <c r="F298" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Tymmophorus_gelidus</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15">
       <c r="A299" s="1" t="s">
         <v>644</v>
       </c>
@@ -9479,12 +9490,12 @@
         <f t="shared" si="8"/>
         <v>rostrata</v>
       </c>
-      <c r="F299" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="14">
+      <c r="F299" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campoletis_rostrata</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15">
       <c r="A300" s="1" t="s">
         <v>646</v>
       </c>
@@ -9499,12 +9510,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F300" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="14">
+      <c r="F300" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Atractodes_NA</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15">
       <c r="A301" s="1" t="s">
         <v>647</v>
       </c>
@@ -9521,12 +9532,12 @@
         <f t="shared" si="8"/>
         <v>nitidipleuris</v>
       </c>
-      <c r="F301" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="14">
+      <c r="F301" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Tenthredinidae_Amauronematus_nitidipleuris</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15">
       <c r="A302" s="1" t="s">
         <v>651</v>
       </c>
@@ -9543,12 +9554,12 @@
         <f t="shared" si="8"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F302" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="14">
+      <c r="F302" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Tenthredinidae_Amauronematus_groenlandicus</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15">
       <c r="A303" s="1" t="s">
         <v>653</v>
       </c>
@@ -9563,12 +9574,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F303" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="14">
+      <c r="F303" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campoletis_NA</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15">
       <c r="A304" s="1" t="s">
         <v>654</v>
       </c>
@@ -9585,12 +9596,12 @@
         <f t="shared" si="8"/>
         <v>ultimus</v>
       </c>
-      <c r="F304" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="14">
+      <c r="F304" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campodorus_ultimus</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15">
       <c r="A305" s="1" t="s">
         <v>656</v>
       </c>
@@ -9605,12 +9616,12 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="F305" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="14">
+      <c r="F305" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Campoletis_NA</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15">
       <c r="A306" s="1" t="s">
         <v>657</v>
       </c>
@@ -9627,12 +9638,12 @@
         <f t="shared" si="8"/>
         <v>quadrioculata</v>
       </c>
-      <c r="F306" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="14">
+      <c r="F306" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Folsomia_quadrioculata</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15">
       <c r="A307" s="1" t="s">
         <v>661</v>
       </c>
@@ -9649,12 +9660,12 @@
         <f t="shared" si="8"/>
         <v>quadrioculata</v>
       </c>
-      <c r="F307" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="14">
+      <c r="F307" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Folsomia_quadrioculata</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15">
       <c r="A308" s="1" t="s">
         <v>662</v>
       </c>
@@ -9671,12 +9682,12 @@
         <f t="shared" si="8"/>
         <v>tshernovi</v>
       </c>
-      <c r="F308" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="14">
+      <c r="F308" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Desoria_tshernovi</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15">
       <c r="A309" s="1" t="s">
         <v>665</v>
       </c>
@@ -9693,12 +9704,12 @@
         <f t="shared" si="8"/>
         <v>minimus</v>
       </c>
-      <c r="F309" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="14">
+      <c r="F309" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Neelidae_Megalothorax_minimus</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15">
       <c r="A310" s="1" t="s">
         <v>669</v>
       </c>
@@ -9715,12 +9726,12 @@
         <f t="shared" si="8"/>
         <v>minimus</v>
       </c>
-      <c r="F310" s="2" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="14">
+      <c r="F310" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Neelidae_Megalothorax_minimus</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="15">
       <c r="A311" s="1" t="s">
         <v>670</v>
       </c>
@@ -9737,12 +9748,12 @@
         <f t="shared" ref="E311:E373" si="10">IFERROR(RIGHT(D311, LEN(D311)-IFERROR(FIND(" ", D311),"")), "NA")</f>
         <v>minimus</v>
       </c>
-      <c r="F311" s="2" t="e">
-        <f t="shared" ref="F311:F373" ca="1" si="11">_1__xlfn.TEXTJOIN("_", TRUE, B311, C311, E311)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="14">
+      <c r="F311" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Neelidae_Megalothorax_minimus</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15">
       <c r="A312" s="1" t="s">
         <v>671</v>
       </c>
@@ -9759,12 +9770,12 @@
         <f t="shared" si="10"/>
         <v>ekmani</v>
       </c>
-      <c r="F312" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="14">
+      <c r="F312" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Parisotoma_ekmani</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15">
       <c r="A313" s="1" t="s">
         <v>674</v>
       </c>
@@ -9781,12 +9792,12 @@
         <f t="shared" si="10"/>
         <v>denticulata</v>
       </c>
-      <c r="F313" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="14">
+      <c r="F313" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Hypogastruridae_Ceratophysella_denticulata</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15">
       <c r="A314" s="1" t="s">
         <v>678</v>
       </c>
@@ -9803,12 +9814,12 @@
         <f t="shared" si="10"/>
         <v>bisetosa</v>
       </c>
-      <c r="F314" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="14">
+      <c r="F314" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Folsomia_bisetosa</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="15">
       <c r="A315" s="1" t="s">
         <v>680</v>
       </c>
@@ -9825,12 +9836,12 @@
         <f t="shared" si="10"/>
         <v>bisetosa</v>
       </c>
-      <c r="F315" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="14">
+      <c r="F315" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Folsomia_bisetosa</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="15">
       <c r="A316" s="1" t="s">
         <v>681</v>
       </c>
@@ -9847,12 +9858,12 @@
         <f t="shared" si="10"/>
         <v>concolor</v>
       </c>
-      <c r="F316" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="14">
+      <c r="F316" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Hypogastruridae_Hypogastrura_concolor</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="15">
       <c r="A317" s="1" t="s">
         <v>684</v>
       </c>
@@ -9869,12 +9880,12 @@
         <f t="shared" si="10"/>
         <v>groenlandica</v>
       </c>
-      <c r="F317" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="14">
+      <c r="F317" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Onychiuridae_Oligaphorura_groenlandica</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15">
       <c r="A318" s="1" t="s">
         <v>688</v>
       </c>
@@ -9891,12 +9902,12 @@
         <f t="shared" si="10"/>
         <v>groenlandica</v>
       </c>
-      <c r="F318" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="14">
+      <c r="F318" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Onychiuridae_Oligaphorura_groenlandica</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="15">
       <c r="A319" s="1" t="s">
         <v>689</v>
       </c>
@@ -9913,12 +9924,12 @@
         <f t="shared" si="10"/>
         <v>sexoculata</v>
       </c>
-      <c r="F319" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="14">
+      <c r="F319" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Isotomidae_Folsomia_sexoculata</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15">
       <c r="A320" s="1" t="s">
         <v>691</v>
       </c>
@@ -9935,12 +9946,12 @@
         <f t="shared" si="10"/>
         <v>scandinavica</v>
       </c>
-      <c r="F320" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="14">
+      <c r="F320" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Hypogastruridae_Willemia_scandinavica</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15">
       <c r="A321" s="1" t="s">
         <v>694</v>
       </c>
@@ -9957,12 +9968,12 @@
         <f t="shared" si="10"/>
         <v>aureus</v>
       </c>
-      <c r="F321" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" ht="14">
+      <c r="F321" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Katiannidae_Sminthurinus_aureus</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15">
       <c r="A322" s="1" t="s">
         <v>698</v>
       </c>
@@ -9979,12 +9990,12 @@
         <f t="shared" si="10"/>
         <v>majale</v>
       </c>
-      <c r="F322" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="14">
+      <c r="F322" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Ichneumonidae_Diadegma_majale</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15">
       <c r="A323" s="1" t="s">
         <v>701</v>
       </c>
@@ -10001,12 +10012,12 @@
         <f t="shared" si="10"/>
         <v>sp_nov</v>
       </c>
-      <c r="F323" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="14">
+      <c r="F323" s="2" t="str">
+        <f t="shared" ref="F323:F386" si="11">_xlfn.TEXTJOIN("_", TRUE, B323, C323, E323)</f>
+        <v>Ceratozetidae_Diapterobates_sp_nov</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15">
       <c r="A324" s="1" t="s">
         <v>705</v>
       </c>
@@ -10023,12 +10034,12 @@
         <f t="shared" si="10"/>
         <v>sp_nov</v>
       </c>
-      <c r="F324" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" ht="14">
+      <c r="F324" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Crotoniidae_Neonothrus_sp_nov</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15">
       <c r="A325" s="1" t="s">
         <v>709</v>
       </c>
@@ -10045,12 +10056,12 @@
         <f t="shared" si="10"/>
         <v>alpestris</v>
       </c>
-      <c r="F325" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="14">
+      <c r="F325" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Brachychthoniidae_Liochthonius_alpestris</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15">
       <c r="A326" s="1" t="s">
         <v>713</v>
       </c>
@@ -10067,12 +10078,12 @@
         <f t="shared" si="10"/>
         <v>sp_nov</v>
       </c>
-      <c r="F326" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="14">
+      <c r="F326" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppiidae_Oppiella_sp_nov</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15">
       <c r="A327" s="1" t="s">
         <v>717</v>
       </c>
@@ -10089,12 +10100,12 @@
         <f t="shared" si="10"/>
         <v>tridactylus</v>
       </c>
-      <c r="F327" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="14">
+      <c r="F327" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Punctoribatidae_Mycobates_tridactylus</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15">
       <c r="A328" s="1" t="s">
         <v>721</v>
       </c>
@@ -10111,12 +10122,12 @@
         <f t="shared" si="10"/>
         <v>tibialis</v>
       </c>
-      <c r="F328" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="14">
+      <c r="F328" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Oribatulidae_Oribatula_tibialis</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15">
       <c r="A329" s="1" t="s">
         <v>725</v>
       </c>
@@ -10133,12 +10144,12 @@
         <f t="shared" si="10"/>
         <v>lapponica</v>
       </c>
-      <c r="F329" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="14">
+      <c r="F329" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Crotoniidae_Camisia_lapponica</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15">
       <c r="A330" s="1" t="s">
         <v>728</v>
       </c>
@@ -10155,12 +10166,12 @@
         <f t="shared" si="10"/>
         <v>lapponica</v>
       </c>
-      <c r="F330" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="14">
+      <c r="F330" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Crotoniidae_Camisia_lapponica</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15">
       <c r="A331" s="1" t="s">
         <v>729</v>
       </c>
@@ -10177,12 +10188,12 @@
         <f t="shared" si="10"/>
         <v>sp_nov</v>
       </c>
-      <c r="F331" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="14">
+      <c r="F331" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Peloppiidae_Ceratoppia_sp_nov</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15">
       <c r="A332" s="1" t="s">
         <v>733</v>
       </c>
@@ -10199,12 +10210,12 @@
         <f t="shared" si="10"/>
         <v>majale</v>
       </c>
-      <c r="F332" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="14">
+      <c r="F332" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Diadegma_majale</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15">
       <c r="A333" s="1" t="s">
         <v>734</v>
       </c>
@@ -10221,12 +10232,12 @@
         <f t="shared" si="10"/>
         <v>rubens</v>
       </c>
-      <c r="F333" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="14">
+      <c r="F333" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Braconidae_Meteorus_rubens</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15">
       <c r="A334" s="1" t="s">
         <v>737</v>
       </c>
@@ -10243,12 +10254,12 @@
         <f t="shared" si="10"/>
         <v>pullatus</v>
       </c>
-      <c r="F334" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="14">
+      <c r="F334" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Exochus_pullatus</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15">
       <c r="A335" s="1" t="s">
         <v>740</v>
       </c>
@@ -10265,12 +10276,12 @@
         <f t="shared" si="10"/>
         <v>arctica</v>
       </c>
-      <c r="F335" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="14">
+      <c r="F335" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Glypta_arctica</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15">
       <c r="A336" s="1" t="s">
         <v>743</v>
       </c>
@@ -10285,12 +10296,12 @@
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="F336" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="14">
+      <c r="F336" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Braconidae_Dolichogenidea_NA</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15">
       <c r="A337" s="1" t="s">
         <v>745</v>
       </c>
@@ -10307,12 +10318,12 @@
         <f t="shared" si="10"/>
         <v>sabini</v>
       </c>
-      <c r="F337" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="14">
+      <c r="F337" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Geometridae_Psychophora_sabini</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15">
       <c r="A338" s="1" t="s">
         <v>749</v>
       </c>
@@ -10329,12 +10340,12 @@
         <f t="shared" si="10"/>
         <v>groenlandicum</v>
       </c>
-      <c r="F338" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="14">
+      <c r="F338" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Aphididae_Pterocomma_groenlandicum</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15">
       <c r="A339" s="1" t="s">
         <v>753</v>
       </c>
@@ -10351,12 +10362,12 @@
         <f t="shared" si="10"/>
         <v>polaris</v>
       </c>
-      <c r="F339" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="14">
+      <c r="F339" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Aphididae_Myzus_polaris</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15">
       <c r="A340" s="1" t="s">
         <v>756</v>
       </c>
@@ -10373,12 +10384,12 @@
         <f t="shared" si="10"/>
         <v>sp_1</v>
       </c>
-      <c r="F340" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="14">
+      <c r="F340" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Aphididae_Acyrthosiphon_sp_1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15">
       <c r="A341" s="1" t="s">
         <v>759</v>
       </c>
@@ -10395,12 +10406,12 @@
         <f t="shared" si="10"/>
         <v>thula</v>
       </c>
-      <c r="F341" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="14">
+      <c r="F341" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Tachinidae_Exorista_thula</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15">
       <c r="A342" s="1" t="s">
         <v>762</v>
       </c>
@@ -10417,12 +10428,12 @@
         <f t="shared" si="10"/>
         <v>horstmanni</v>
       </c>
-      <c r="F342" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="14">
+      <c r="F342" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Campoletis_horstmanni</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15">
       <c r="A343" s="1" t="s">
         <v>763</v>
       </c>
@@ -10439,12 +10450,12 @@
         <f t="shared" si="10"/>
         <v>occidentalis</v>
       </c>
-      <c r="F343" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="14">
+      <c r="F343" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Coelichneumonops_occidentalis</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15">
       <c r="A344" s="1" t="s">
         <v>766</v>
       </c>
@@ -10461,12 +10472,12 @@
         <f t="shared" si="10"/>
         <v>zonella</v>
       </c>
-      <c r="F344" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="14">
+      <c r="F344" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Apataniidae_Apatania_zonella</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15">
       <c r="A345" s="1" t="s">
         <v>770</v>
       </c>
@@ -10483,12 +10494,12 @@
         <f t="shared" si="10"/>
         <v>glandon</v>
       </c>
-      <c r="F345" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="14">
+      <c r="F345" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Lycaenidae_Agriades_glandon</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15">
       <c r="A346" s="1" t="s">
         <v>774</v>
       </c>
@@ -10505,12 +10516,12 @@
         <f t="shared" si="10"/>
         <v>lacki</v>
       </c>
-      <c r="F346" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" ht="14">
+      <c r="F346" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Mycetophilidae_Rymosia_lacki</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15">
       <c r="A347" s="1" t="s">
         <v>777</v>
       </c>
@@ -10527,12 +10538,12 @@
         <f t="shared" si="10"/>
         <v>richardsoni</v>
       </c>
-      <c r="F347" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" ht="14">
+      <c r="F347" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Noctuidae_Polia_richardsoni</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15">
       <c r="A348" s="1" t="s">
         <v>780</v>
       </c>
@@ -10549,12 +10560,12 @@
         <f t="shared" si="10"/>
         <v>sp</v>
       </c>
-      <c r="F348" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="14">
+      <c r="F348" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Erythraeidae_Erythraeus_sp</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="15">
       <c r="A349" s="1" t="s">
         <v>783</v>
       </c>
@@ -10571,12 +10582,12 @@
         <f t="shared" si="10"/>
         <v>mengeli</v>
       </c>
-      <c r="F349" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="14">
+      <c r="F349" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Pterophoridae_Stenoptilia_mengeli</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="15">
       <c r="A350" s="1" t="s">
         <v>787</v>
       </c>
@@ -10593,12 +10604,12 @@
         <f t="shared" si="10"/>
         <v>sp</v>
       </c>
-      <c r="F350" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="14">
+      <c r="F350" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Eupodidae_Eupodes_sp</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="15">
       <c r="A351" s="1" t="s">
         <v>790</v>
       </c>
@@ -10615,12 +10626,12 @@
         <f t="shared" si="10"/>
         <v>gracilentus</v>
       </c>
-      <c r="F351" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="14">
+      <c r="F351" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Chironomidae_Tanytarsus_gracilentus</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15">
       <c r="A352" s="1" t="s">
         <v>792</v>
       </c>
@@ -10637,12 +10648,12 @@
         <f t="shared" si="10"/>
         <v>parva</v>
       </c>
-      <c r="F352" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="14">
+      <c r="F352" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Chironomidae_Pseudokiefferiella_parva</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15">
       <c r="A353" s="1" t="s">
         <v>794</v>
       </c>
@@ -10659,12 +10670,12 @@
         <f t="shared" si="10"/>
         <v>sp</v>
       </c>
-      <c r="F353" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="14">
+      <c r="F353" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Megaspilidae_Dendrocerus_sp</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="15">
       <c r="A354" s="1" t="s">
         <v>798</v>
       </c>
@@ -10681,12 +10692,12 @@
         <f t="shared" si="10"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F354" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="14">
+      <c r="F354" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Encyrtidae_Metaphycus_groenlandicus</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15">
       <c r="A355" s="1" t="s">
         <v>802</v>
       </c>
@@ -10703,12 +10714,12 @@
         <f t="shared" si="10"/>
         <v>arcticus</v>
       </c>
-      <c r="F355" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="14">
+      <c r="F355" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Braconidae_Meteorus_arcticus</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15">
       <c r="A356" s="1" t="s">
         <v>804</v>
       </c>
@@ -10725,12 +10736,12 @@
         <f t="shared" si="10"/>
         <v>arctica</v>
       </c>
-      <c r="F356" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="14">
+      <c r="F356" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Linyphiidae_Erigone_arctica</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15">
       <c r="A357" s="1" t="s">
         <v>808</v>
       </c>
@@ -10747,12 +10758,12 @@
         <f t="shared" si="10"/>
         <v>psychrophila</v>
       </c>
-      <c r="F357" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="14">
+      <c r="F357" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Linyphiidae_Erigone_psychrophila</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15">
       <c r="A358" s="1" t="s">
         <v>810</v>
       </c>
@@ -10769,12 +10780,12 @@
         <f t="shared" si="10"/>
         <v>borealis</v>
       </c>
-      <c r="F358" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="14">
+      <c r="F358" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Linyphiidae_Mecynargus_borealis</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15">
       <c r="A359" s="1" t="s">
         <v>813</v>
       </c>
@@ -10791,12 +10802,12 @@
         <f t="shared" si="10"/>
         <v>thulensis</v>
       </c>
-      <c r="F359" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="14">
+      <c r="F359" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Linyphiidae_Collinsia_thulensis</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15">
       <c r="A360" s="1" t="s">
         <v>816</v>
       </c>
@@ -10813,12 +10824,12 @@
         <f t="shared" si="10"/>
         <v>vexatrix</v>
       </c>
-      <c r="F360" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="14">
+      <c r="F360" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Linyphiidae_Hilaira_vexatrix</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15">
       <c r="A361" s="1" t="s">
         <v>819</v>
       </c>
@@ -10835,12 +10846,12 @@
         <f t="shared" si="10"/>
         <v>hyperboreus</v>
       </c>
-      <c r="F361" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="14">
+      <c r="F361" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Apidae_Bombus_hyperboreus</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15">
       <c r="A362" s="1" t="s">
         <v>823</v>
       </c>
@@ -10857,12 +10868,12 @@
         <f t="shared" si="10"/>
         <v>inquietana</v>
       </c>
-      <c r="F362" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="14">
+      <c r="F362" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Tortricidae_Olethreutes_inquietana</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15">
       <c r="A363" s="1" t="s">
         <v>826</v>
       </c>
@@ -10879,12 +10890,12 @@
         <f t="shared" si="10"/>
         <v>polaris</v>
       </c>
-      <c r="F363" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="14">
+      <c r="F363" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Apidae_Bombus_polaris</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="15">
       <c r="A364" s="1" t="s">
         <v>828</v>
       </c>
@@ -10901,12 +10912,12 @@
         <f t="shared" si="10"/>
         <v>sp_nov</v>
       </c>
-      <c r="F364" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="14">
+      <c r="F364" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Mycetophilidae_Boletina_sp_nov</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15">
       <c r="A365" s="1" t="s">
         <v>831</v>
       </c>
@@ -10923,12 +10934,12 @@
         <f t="shared" si="10"/>
         <v>labradorensis</v>
       </c>
-      <c r="F365" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="14">
+      <c r="F365" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Thomisidae_Xysticus_labradorensis</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="15">
       <c r="A366" s="1" t="s">
         <v>835</v>
       </c>
@@ -10945,12 +10956,12 @@
         <f t="shared" si="10"/>
         <v>fusca</v>
       </c>
-      <c r="F366" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" ht="14">
+      <c r="F366" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Pyralidae_Pyla_fusca</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="15">
       <c r="A367" s="1" t="s">
         <v>839</v>
       </c>
@@ -10967,12 +10978,12 @@
         <f t="shared" si="10"/>
         <v>maesticolor</v>
       </c>
-      <c r="F367" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" ht="14">
+      <c r="F367" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Gelis_maesticolor</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="15">
       <c r="A368" s="1" t="s">
         <v>842</v>
       </c>
@@ -10985,12 +10996,12 @@
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="F368" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="14">
+      <c r="F368" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_NA</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="15">
       <c r="A369" s="1" t="s">
         <v>843</v>
       </c>
@@ -11007,12 +11018,12 @@
         <f t="shared" si="10"/>
         <v>kidluitata</v>
       </c>
-      <c r="F369" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" ht="14">
+      <c r="F369" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Geometridae_Entephria_kidluitata</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="15">
       <c r="A370" s="1" t="s">
         <v>846</v>
       </c>
@@ -11029,12 +11040,12 @@
         <f t="shared" si="10"/>
         <v>groenlandica</v>
       </c>
-      <c r="F370" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="14">
+      <c r="F370" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Erebidae_Gynaephora_groenlandica</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15">
       <c r="A371" s="1" t="s">
         <v>850</v>
       </c>
@@ -11051,12 +11062,12 @@
         <f t="shared" si="10"/>
         <v>deichmanni</v>
       </c>
-      <c r="F371" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="14">
+      <c r="F371" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Thomisidae_Xysticus_deichmanni</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="15">
       <c r="A372" s="1" t="s">
         <v>852</v>
       </c>
@@ -11073,12 +11084,12 @@
         <f t="shared" si="10"/>
         <v>glacialis</v>
       </c>
-      <c r="F372" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="14">
+      <c r="F372" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Lycosidae_Pardosa_glacialis</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="15">
       <c r="A373" s="1" t="s">
         <v>856</v>
       </c>
@@ -11095,12 +11106,12 @@
         <f t="shared" si="10"/>
         <v>fabricii</v>
       </c>
-      <c r="F373" s="2" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="14">
+      <c r="F373" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Anthomyiidae_Delia_fabricii</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="15">
       <c r="A374" s="1" t="s">
         <v>858</v>
       </c>
@@ -11117,12 +11128,12 @@
         <f t="shared" ref="E374:E397" si="12">IFERROR(RIGHT(D374, LEN(D374)-IFERROR(FIND(" ", D374),"")), "NA")</f>
         <v>minutus</v>
       </c>
-      <c r="F374" s="2" t="e">
-        <f t="shared" ref="F374:F397" ca="1" si="13">_1__xlfn.TEXTJOIN("_", TRUE, B374, C374, E374)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="14">
+      <c r="F374" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Latridiidae_Latridius_minutus</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="15">
       <c r="A375" s="1" t="s">
         <v>862</v>
       </c>
@@ -11139,12 +11150,12 @@
         <f t="shared" si="12"/>
         <v>erigerontophaga</v>
       </c>
-      <c r="F375" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="14">
+      <c r="F375" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Agromyzidae_Phytomyza_erigerontophaga</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="15">
       <c r="A376" s="1" t="s">
         <v>864</v>
       </c>
@@ -11161,12 +11172,12 @@
         <f t="shared" si="12"/>
         <v>groenlandica</v>
       </c>
-      <c r="F376" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="14">
+      <c r="F376" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Limnophora_groenlandica</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15">
       <c r="A377" s="1" t="s">
         <v>867</v>
       </c>
@@ -11183,12 +11194,12 @@
         <f t="shared" si="12"/>
         <v>minimus</v>
       </c>
-      <c r="F377" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="14">
+      <c r="F377" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Lophosceles_minimus</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="15">
       <c r="A378" s="1" t="s">
         <v>870</v>
       </c>
@@ -11205,12 +11216,12 @@
         <f t="shared" si="12"/>
         <v>malaisei</v>
       </c>
-      <c r="F378" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" ht="14">
+      <c r="F378" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Spilogona_malaisei</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="15">
       <c r="A379" s="1" t="s">
         <v>872</v>
       </c>
@@ -11227,12 +11238,12 @@
         <f t="shared" si="12"/>
         <v>novaesibiriae</v>
       </c>
-      <c r="F379" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="14">
+      <c r="F379" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Spilogona_novaesibiriae</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15">
       <c r="A380" s="1" t="s">
         <v>874</v>
       </c>
@@ -11249,12 +11260,12 @@
         <f t="shared" si="12"/>
         <v>sanctipauli</v>
       </c>
-      <c r="F380" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="14">
+      <c r="F380" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Spilogona_sanctipauli</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15">
       <c r="A381" s="1" t="s">
         <v>876</v>
       </c>
@@ -11271,12 +11282,12 @@
         <f t="shared" si="12"/>
         <v>tornensis</v>
       </c>
-      <c r="F381" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" ht="14">
+      <c r="F381" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Spilogona_tornensis</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15">
       <c r="A382" s="1" t="s">
         <v>878</v>
       </c>
@@ -11293,12 +11304,12 @@
         <f t="shared" si="12"/>
         <v>zaitzevi</v>
       </c>
-      <c r="F382" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="14">
+      <c r="F382" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Muscidae_Spilogona_zaitzevi</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="15">
       <c r="A383" s="1" t="s">
         <v>880</v>
       </c>
@@ -11315,12 +11326,12 @@
         <f t="shared" si="12"/>
         <v>groenlandicus</v>
       </c>
-      <c r="F383" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="14">
+      <c r="F383" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Syrphidae_Helophilus_groenlandicus</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15">
       <c r="A384" s="1" t="s">
         <v>883</v>
       </c>
@@ -11337,12 +11348,12 @@
         <f t="shared" si="12"/>
         <v>lapponicus</v>
       </c>
-      <c r="F384" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="14">
+      <c r="F384" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Syrphidae_Helophilus_lapponicus</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="15">
       <c r="A385" s="1" t="s">
         <v>885</v>
       </c>
@@ -11359,12 +11370,12 @@
         <f t="shared" si="12"/>
         <v>hinzi</v>
       </c>
-      <c r="F385" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" ht="14">
+      <c r="F385" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Ichneumonidae_Occapes_hinzi</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="15">
       <c r="A386" s="1" t="s">
         <v>888</v>
       </c>
@@ -11381,12 +11392,12 @@
         <f t="shared" si="12"/>
         <v>meltoftei</v>
       </c>
-      <c r="F386" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" ht="14">
+      <c r="F386" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Eulophidae_Aprostocetus_meltoftei</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="15">
       <c r="A387" s="1" t="s">
         <v>892</v>
       </c>
@@ -11403,12 +11414,12 @@
         <f t="shared" si="12"/>
         <v>sp</v>
       </c>
-      <c r="F387" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="14">
+      <c r="F387" s="2" t="str">
+        <f t="shared" ref="F387:F397" si="13">_xlfn.TEXTJOIN("_", TRUE, B387, C387, E387)</f>
+        <v>Ichneumonidae_Gelis_sp</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="15">
       <c r="A388" s="1" t="s">
         <v>894</v>
       </c>
@@ -11425,12 +11436,12 @@
         <f t="shared" si="12"/>
         <v>sp_3ZERO</v>
       </c>
-      <c r="F388" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" ht="14">
+      <c r="F388" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Ichneumonidae_Stenomacrus_sp_3ZERO</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="15">
       <c r="A389" s="1" t="s">
         <v>896</v>
       </c>
@@ -11447,12 +11458,12 @@
         <f t="shared" si="12"/>
         <v>groenlandica</v>
       </c>
-      <c r="F389" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" ht="14">
+      <c r="F389" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Braconidae_Dacnusa_groenlandica</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="15">
       <c r="A390" s="1" t="s">
         <v>899</v>
       </c>
@@ -11469,12 +11480,12 @@
         <f t="shared" si="12"/>
         <v>sp_2ZERO</v>
       </c>
-      <c r="F390" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="14">
+      <c r="F390" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Ichneumonidae_Plectiscus_sp_2ZERO</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="15">
       <c r="A391" s="1" t="s">
         <v>902</v>
       </c>
@@ -11491,12 +11502,12 @@
         <f t="shared" si="12"/>
         <v>groenlandicum</v>
       </c>
-      <c r="F391" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="14">
+      <c r="F391" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Pteromalidae_Pachyneuron_groenlandicum</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="15">
       <c r="A392" s="1" t="s">
         <v>903</v>
       </c>
@@ -11513,12 +11524,12 @@
         <f t="shared" si="12"/>
         <v>micropennis</v>
       </c>
-      <c r="F392" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="14">
+      <c r="F392" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Ichneumonidae_Stenomacrus_micropennis</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="15">
       <c r="A393" s="1" t="s">
         <v>905</v>
       </c>
@@ -11535,12 +11546,12 @@
         <f t="shared" si="12"/>
         <v>brevistigma</v>
       </c>
-      <c r="F393" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="14">
+      <c r="F393" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Braconidae_Praon_brevistigma</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="15">
       <c r="A394" s="1" t="s">
         <v>907</v>
       </c>
@@ -11557,12 +11568,12 @@
         <f t="shared" si="12"/>
         <v>sp_nov</v>
       </c>
-      <c r="F394" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="14">
+      <c r="F394" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Encyrtidae_Pseudencyrtus_sp_nov</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="15">
       <c r="A395" s="1" t="s">
         <v>910</v>
       </c>
@@ -11579,12 +11590,12 @@
         <f t="shared" si="12"/>
         <v>tendipes</v>
       </c>
-      <c r="F395" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="14">
+      <c r="F395" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Muscidae_Spilogona_tendipes</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="15">
       <c r="A396" s="1" t="s">
         <v>912</v>
       </c>
@@ -11601,9 +11612,9 @@
         <f t="shared" si="12"/>
         <v>denudata</v>
       </c>
-      <c r="F396" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="F396" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Muscidae_Spilogona_denudata</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="15.75" customHeight="1">
@@ -11623,13 +11634,13 @@
         <f t="shared" si="12"/>
         <v>arcticola</v>
       </c>
-      <c r="F397" s="2" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="F397" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Muscidae_Spilogona_arcticola</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F397"/>
+  <autoFilter ref="A1:F397" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/5_taxonomy/COI_barcodes_only_taxonomies_20180410.xlsx
+++ b/5_taxonomy/COI_barcodes_only_taxonomies_20180410.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10701"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Roslin_Greenland/2017/bulk_samples/mapping_git/5_taxonomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09C7B6-4455-934A-872F-387456E83844}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9DEC7A-8C8E-6046-B87D-4C18D656DC16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="29360" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="440" windowWidth="29360" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COI_Barcodes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COI_Barcodes!$A$1:$F$397</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="916">
   <si>
     <t>Barcode_code</t>
   </si>
@@ -2781,6 +2781,9 @@
   </si>
   <si>
     <t>Spilogona arcticola</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2967,7 +2970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3172,8 +3175,8 @@
   <dimension ref="A1:F397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F397"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3217,7 +3220,9 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E2" s="2" t="str">
         <f>IFERROR(RIGHT(D2, LEN(D2)-IFERROR(FIND(" ", D2),"")), "NA")</f>
         <v>NA</v>
@@ -3256,15 +3261,19 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -3299,7 +3308,9 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3319,7 +3330,9 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3361,7 +3374,9 @@
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3378,15 +3393,19 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
@@ -3421,7 +3440,9 @@
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3441,7 +3462,9 @@
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3461,7 +3484,9 @@
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3478,15 +3503,19 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -3540,15 +3569,19 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -3561,7 +3594,9 @@
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3578,15 +3613,19 @@
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Trichoceridae_NA</v>
+        <v>Trichoceridae_NA_NA</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
@@ -3599,7 +3638,9 @@
       <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3641,7 +3682,9 @@
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3661,7 +3704,9 @@
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3681,7 +3726,9 @@
       <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3723,7 +3770,9 @@
       <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3743,7 +3792,9 @@
       <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3763,7 +3814,9 @@
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3802,15 +3855,19 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Ichneumonidae_NA</v>
+        <v>Ichneumonidae_NA_NA</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
@@ -3823,7 +3880,9 @@
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3843,7 +3902,9 @@
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3863,7 +3924,9 @@
       <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3905,7 +3968,9 @@
       <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3925,7 +3990,9 @@
       <c r="C37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -3945,7 +4012,9 @@
       <c r="C38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4097,7 +4166,9 @@
       <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4139,7 +4210,9 @@
       <c r="C47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4159,7 +4232,9 @@
       <c r="C48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4198,15 +4273,19 @@
       <c r="B50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Penthaleidae_NA</v>
+        <v>Penthaleidae_NA_NA</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15">
@@ -4285,7 +4364,9 @@
       <c r="C54" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4327,7 +4408,9 @@
       <c r="C56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4347,7 +4430,9 @@
       <c r="C57" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4367,7 +4452,9 @@
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
@@ -4431,7 +4518,9 @@
       <c r="C61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4451,7 +4540,9 @@
       <c r="C62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4493,7 +4584,9 @@
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4535,7 +4628,9 @@
       <c r="C66" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4574,15 +4669,19 @@
       <c r="B68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15">
@@ -4595,7 +4694,9 @@
       <c r="C69" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4637,7 +4738,9 @@
       <c r="C71" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4698,15 +4801,19 @@
       <c r="B74" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Canacidae_NA</v>
+        <v>Canacidae_NA_NA</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15">
@@ -4785,7 +4892,9 @@
       <c r="C78" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4824,15 +4933,19 @@
       <c r="B80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Ichneumonidae_NA</v>
+        <v>Ichneumonidae_NA_NA</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15">
@@ -4845,7 +4958,9 @@
       <c r="C81" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4931,7 +5046,9 @@
       <c r="C85" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E85" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4951,7 +5068,9 @@
       <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E86" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4971,7 +5090,9 @@
       <c r="C87" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E87" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -4991,7 +5112,9 @@
       <c r="C88" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5033,7 +5156,9 @@
       <c r="C90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E90" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5053,7 +5178,9 @@
       <c r="C91" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5073,7 +5200,9 @@
       <c r="C92" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5137,7 +5266,9 @@
       <c r="C95" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E95" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5311,7 +5442,9 @@
       <c r="C103" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E103" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5394,15 +5527,19 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E107" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Mycetophilidae_NA</v>
+        <v>Mycetophilidae_NA_NA</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15">
@@ -5437,7 +5574,9 @@
       <c r="C109" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E109" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5457,7 +5596,9 @@
       <c r="C110" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E110" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5521,7 +5662,9 @@
       <c r="C113" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E113" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5585,7 +5728,9 @@
       <c r="C116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E116" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
@@ -5624,15 +5769,19 @@
       <c r="B118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E118" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F118" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Sciaridae_NA</v>
+        <v>Sciaridae_NA_NA</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15">
@@ -5642,15 +5791,19 @@
       <c r="B119" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E119" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="F119" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15">
@@ -5726,15 +5879,19 @@
       <c r="B123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E123" s="2" t="str">
         <f t="shared" ref="E123:E184" si="4">IFERROR(RIGHT(D123, LEN(D123)-IFERROR(FIND(" ", D123),"")), "NA")</f>
         <v>NA</v>
       </c>
       <c r="F123" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15">
@@ -5744,15 +5901,19 @@
       <c r="B124" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E124" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="F124" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Agromyzidae_NA</v>
+        <v>Agromyzidae_NA_NA</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15">
@@ -5765,7 +5926,9 @@
       <c r="C125" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E125" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -5873,7 +6036,9 @@
       <c r="C130" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E130" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -5937,7 +6102,9 @@
       <c r="C133" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E133" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -5957,7 +6124,9 @@
       <c r="C134" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E134" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6021,7 +6190,9 @@
       <c r="C137" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E137" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6041,7 +6212,9 @@
       <c r="C138" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E138" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6061,7 +6234,9 @@
       <c r="C139" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E139" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6081,7 +6256,9 @@
       <c r="C140" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E140" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6255,7 +6432,9 @@
       <c r="C148" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E148" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6319,7 +6498,9 @@
       <c r="C151" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E151" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6336,15 +6517,19 @@
       <c r="B152" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E152" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="F152" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15">
@@ -6401,7 +6586,9 @@
       <c r="C155" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E155" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6440,15 +6627,19 @@
       <c r="B157" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E157" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="F157" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Eupodidae_NA</v>
+        <v>Eupodidae_NA_NA</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15">
@@ -6461,7 +6652,9 @@
       <c r="C158" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E158" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6478,15 +6671,19 @@
       <c r="B159" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E159" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="F159" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Eupodidae_NA</v>
+        <v>Eupodidae_NA_NA</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15">
@@ -6631,7 +6828,9 @@
       <c r="C166" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E166" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6695,7 +6894,9 @@
       <c r="C169" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E169" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6715,7 +6916,9 @@
       <c r="C170" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E170" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6735,7 +6938,9 @@
       <c r="C171" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D171" s="3"/>
+      <c r="D171" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E171" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6953,7 +7158,9 @@
       <c r="C181" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E181" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6973,7 +7180,9 @@
       <c r="C182" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E182" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -6993,7 +7202,9 @@
       <c r="C183" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E183" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -7123,7 +7334,9 @@
       <c r="C189" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D189" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E189" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7165,7 +7378,9 @@
       <c r="C191" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E191" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7229,7 +7444,9 @@
       <c r="C194" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E194" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7249,7 +7466,9 @@
       <c r="C195" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D195" s="3"/>
+      <c r="D195" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E195" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7269,7 +7488,9 @@
       <c r="C196" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E196" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7289,7 +7510,9 @@
       <c r="C197" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D197" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E197" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7331,7 +7554,9 @@
       <c r="C199" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E199" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7483,7 +7708,9 @@
       <c r="C206" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E206" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7503,7 +7730,9 @@
       <c r="C207" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E207" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7523,7 +7752,9 @@
       <c r="C208" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D208" s="3"/>
+      <c r="D208" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E208" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7628,15 +7859,19 @@
       <c r="B213" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E213" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="F213" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>Lebertiidae_NA</v>
+        <v>Lebertiidae_NA_NA</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15">
@@ -7646,15 +7881,19 @@
       <c r="B214" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E214" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="F214" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>Erythraeidae_NA</v>
+        <v>Erythraeidae_NA_NA</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15">
@@ -7708,15 +7947,19 @@
       <c r="B217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E217" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="F217" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>Chironomidae_NA</v>
+        <v>Chironomidae_NA_NA</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15">
@@ -7751,7 +7994,9 @@
       <c r="C219" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E219" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7881,7 +8126,9 @@
       <c r="C225" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E225" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7945,7 +8192,9 @@
       <c r="C228" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E228" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -7987,7 +8236,9 @@
       <c r="C230" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E230" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8029,7 +8280,9 @@
       <c r="C232" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E232" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8203,7 +8456,9 @@
       <c r="C240" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E240" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8311,7 +8566,9 @@
       <c r="C245" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E245" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8331,7 +8588,9 @@
       <c r="C246" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E246" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8351,7 +8610,9 @@
       <c r="C247" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E247" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
@@ -8371,7 +8632,9 @@
       <c r="C248" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E248" s="2" t="str">
         <f t="shared" ref="E248:E310" si="8">IFERROR(RIGHT(D248, LEN(D248)-IFERROR(FIND(" ", D248),"")), "NA")</f>
         <v>NA</v>
@@ -8501,7 +8764,9 @@
       <c r="C254" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E254" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -8829,7 +9094,9 @@
       <c r="C269" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D269" s="3"/>
+      <c r="D269" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E269" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -8849,7 +9116,9 @@
       <c r="C270" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D270" s="3"/>
+      <c r="D270" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E270" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -9397,7 +9666,9 @@
       <c r="C295" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E295" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -9505,7 +9776,9 @@
       <c r="C300" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D300" s="3"/>
+      <c r="D300" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E300" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -9569,7 +9842,9 @@
       <c r="C303" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D303" s="3"/>
+      <c r="D303" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E303" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -9611,7 +9886,9 @@
       <c r="C305" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D305" s="3"/>
+      <c r="D305" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E305" s="2" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -10291,7 +10568,9 @@
       <c r="C336" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D336" s="3"/>
+      <c r="D336" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E336" s="2" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
@@ -10990,15 +11269,19 @@
       <c r="B368" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C368" s="3"/>
-      <c r="D368" s="3"/>
+      <c r="C368" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="E368" s="2" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="F368" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>Ichneumonidae_NA</v>
+        <v>Ichneumonidae_NA_NA</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="15">
